--- a/Documents+Tools/GAM_Project_Yarbus 2014-12-3.xlsx
+++ b/Documents+Tools/GAM_Project_Yarbus 2014-12-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="13272" windowHeight="7992" tabRatio="500" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="13272" windowHeight="7992" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -4550,87 +4550,6 @@
     <xf numFmtId="10" fontId="5" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4658,16 +4577,94 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="155" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4677,15 +4674,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4709,20 +4697,20 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4737,6 +4725,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4765,36 +4795,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -23755,51 +23755,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="149"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="122"/>
       <c r="E1" s="15"/>
-      <c r="F1" s="147" t="s">
+      <c r="F1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="149"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="122"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:12" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="123" t="s">
         <v>899</v>
       </c>
-      <c r="B2" s="151"/>
-      <c r="C2" s="151"/>
-      <c r="D2" s="152"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="150" t="s">
+      <c r="F2" s="123" t="s">
         <v>908</v>
       </c>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="152"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="153"/>
-      <c r="B3" s="154"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="155"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="128"/>
       <c r="E3" s="15"/>
-      <c r="F3" s="153"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="154"/>
-      <c r="I3" s="155"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="127"/>
+      <c r="I3" s="128"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
       <c r="L3" s="34"/>
@@ -23819,93 +23819,93 @@
       <c r="L4" s="34"/>
     </row>
     <row r="5" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="147" t="s">
+      <c r="A5" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="148"/>
-      <c r="C5" s="148"/>
-      <c r="D5" s="149"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="122"/>
       <c r="E5" s="15"/>
-      <c r="F5" s="147" t="s">
+      <c r="F5" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="148"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="149"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
       <c r="J5" s="5"/>
       <c r="K5" s="29"/>
       <c r="L5" s="34"/>
     </row>
     <row r="6" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="144" t="s">
+      <c r="A6" s="132" t="s">
         <v>909</v>
       </c>
-      <c r="B6" s="145"/>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
+      <c r="B6" s="133"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="144" t="s">
+      <c r="F6" s="132" t="s">
         <v>911</v>
       </c>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="146"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="134"/>
       <c r="J6" s="5"/>
-      <c r="K6" s="141" t="s">
+      <c r="K6" s="129" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="34"/>
     </row>
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="144" t="s">
+      <c r="A7" s="132" t="s">
         <v>910</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="146"/>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133"/>
+      <c r="D7" s="134"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="144" t="s">
+      <c r="F7" s="132" t="s">
         <v>912</v>
       </c>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="146"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="134"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="142"/>
+      <c r="K7" s="130"/>
       <c r="L7" s="34"/>
     </row>
     <row r="8" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="147" t="s">
+      <c r="A8" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="149"/>
+      <c r="B8" s="121"/>
+      <c r="C8" s="121"/>
+      <c r="D8" s="122"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="144" t="s">
+      <c r="F8" s="132" t="s">
         <v>913</v>
       </c>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="146"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="142"/>
+      <c r="K8" s="130"/>
       <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="144"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="145"/>
-      <c r="D9" s="146"/>
+      <c r="A9" s="132"/>
+      <c r="B9" s="133"/>
+      <c r="C9" s="133"/>
+      <c r="D9" s="134"/>
       <c r="E9" s="15"/>
-      <c r="F9" s="144" t="s">
+      <c r="F9" s="132" t="s">
         <v>914</v>
       </c>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="146"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="134"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="143"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -23923,17 +23923,17 @@
       <c r="L10" s="34"/>
     </row>
     <row r="11" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="147" t="s">
+      <c r="A11" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="149"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="122"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="147" t="s">
+      <c r="F11" s="120" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="149"/>
+      <c r="G11" s="122"/>
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
@@ -23972,7 +23972,7 @@
         <v>-0.14000000000000001</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="141" t="s">
+      <c r="K12" s="129" t="s">
         <v>8</v>
       </c>
       <c r="L12" s="34"/>
@@ -24002,7 +24002,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="45"/>
-      <c r="K13" s="142"/>
+      <c r="K13" s="130"/>
       <c r="L13" s="46"/>
     </row>
     <row r="14" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="K14" s="143"/>
+      <c r="K14" s="131"/>
       <c r="L14" s="50"/>
     </row>
     <row r="15" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24089,10 +24089,10 @@
       </c>
       <c r="D17" s="44"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="147" t="s">
+      <c r="F17" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="149"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="2"/>
       <c r="I17" s="36">
         <v>0.75</v>
@@ -24116,16 +24116,16 @@
       <c r="F18" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="125" t="s">
+      <c r="G18" s="135" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="127"/>
+      <c r="H18" s="136"/>
       <c r="I18" s="41">
         <f>IF(LEFT(G18,6)="Entire",0,IF(LEFT(G18,6)="Custom",-0.05,-0.1))</f>
         <v>0</v>
       </c>
       <c r="J18" s="52"/>
-      <c r="K18" s="141" t="s">
+      <c r="K18" s="129" t="s">
         <v>17</v>
       </c>
       <c r="L18" s="34"/>
@@ -24145,16 +24145,16 @@
       <c r="F19" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="131" t="s">
+      <c r="G19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="H19" s="133"/>
+      <c r="H19" s="138"/>
       <c r="I19" s="49">
         <f>IF(G19="2D Graphics and 2D Gameplay",IF(I11=0.15,-0.05,0),IF(G19="3D Graphics but 2D Gameplay",IF(I11=0.15,-0.02,-0.3),IF(I11=0.15,0,-0.3)))</f>
         <v>0</v>
       </c>
       <c r="J19" s="5"/>
-      <c r="K19" s="143"/>
+      <c r="K19" s="131"/>
       <c r="L19" s="34"/>
     </row>
     <row r="20" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24182,7 +24182,7 @@
       <c r="C21" s="43"/>
       <c r="D21" s="44"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="138" t="s">
+      <c r="F21" s="153" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="53"/>
@@ -24198,17 +24198,17 @@
       <c r="C22" s="43"/>
       <c r="D22" s="44"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="139"/>
+      <c r="F22" s="154"/>
       <c r="G22" s="53"/>
       <c r="H22" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="I22" s="120">
+      <c r="I22" s="139">
         <f>I20+I15</f>
         <v>0.71</v>
       </c>
       <c r="J22" s="5"/>
-      <c r="K22" s="122" t="s">
+      <c r="K22" s="141" t="s">
         <v>25</v>
       </c>
       <c r="L22" s="34"/>
@@ -24219,14 +24219,14 @@
       <c r="C23" s="43"/>
       <c r="D23" s="44"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="139"/>
+      <c r="F23" s="154"/>
       <c r="G23" s="53"/>
       <c r="H23" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="121"/>
+      <c r="I23" s="140"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="123"/>
+      <c r="K23" s="142"/>
       <c r="L23" s="34"/>
     </row>
     <row r="24" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -24235,7 +24235,7 @@
       <c r="C24" s="43"/>
       <c r="D24" s="44"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="140"/>
+      <c r="F24" s="155"/>
       <c r="G24" s="53"/>
       <c r="H24" s="53"/>
       <c r="I24" s="53"/>
@@ -24263,12 +24263,12 @@
       <c r="C26" s="43"/>
       <c r="D26" s="44"/>
       <c r="E26" s="15"/>
-      <c r="F26" s="124" t="s">
+      <c r="F26" s="143" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="124"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="124"/>
+      <c r="G26" s="143"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="143"/>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
       <c r="L26" s="34"/>
@@ -24279,12 +24279,12 @@
       <c r="C27" s="43"/>
       <c r="D27" s="44"/>
       <c r="E27" s="15"/>
-      <c r="F27" s="125" t="s">
+      <c r="F27" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="126"/>
-      <c r="H27" s="126"/>
-      <c r="I27" s="127"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="136"/>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
       <c r="L27" s="34"/>
@@ -24295,10 +24295,10 @@
       <c r="C28" s="43"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="147"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="34"/>
@@ -24309,10 +24309,10 @@
       <c r="C29" s="43"/>
       <c r="D29" s="44"/>
       <c r="E29" s="15"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="147"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="34"/>
@@ -24323,28 +24323,28 @@
       <c r="C30" s="43"/>
       <c r="D30" s="44"/>
       <c r="E30" s="15"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="147"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="34"/>
     </row>
     <row r="31" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="134" t="s">
+      <c r="A31" s="149" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="135"/>
-      <c r="C31" s="136" t="s">
+      <c r="B31" s="150"/>
+      <c r="C31" s="151" t="s">
         <v>907</v>
       </c>
-      <c r="D31" s="137"/>
+      <c r="D31" s="152"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="131"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="133"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="138"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="34"/>
@@ -24365,12 +24365,13 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A2:D3"/>
-    <mergeCell ref="F2:I3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="F27:I31"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="F21:F24"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="K18:K19"/>
     <mergeCell ref="A6:D6"/>
@@ -24387,13 +24388,12 @@
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="A7:D7"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="F27:I31"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A2:D3"/>
+    <mergeCell ref="F2:I3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="A6:D7">
@@ -24441,7 +24441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -24458,65 +24458,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="193" t="s">
         <v>700</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="183" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="198" t="s">
+      <c r="D1" s="184"/>
+      <c r="E1" s="183" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="199"/>
-      <c r="G1" s="198" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="183" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="199"/>
+      <c r="H1" s="184"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
+      <c r="A2" s="194"/>
       <c r="B2" s="73"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="200" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="200" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="J2" s="186" t="s">
+      <c r="H2" s="186"/>
+      <c r="J2" s="196" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="187"/>
-      <c r="L2" s="188"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="198"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="196">
+      <c r="C3" s="187">
         <f>MAX(0,MIN(1,IF((A6+C6+L6) &lt;= 0.95, ROUND(A6+C6+L6,2), FLOOR((0.95+(A6+C6+L6-0.95)/5),0.01))))</f>
         <v>0.75</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="196">
+      <c r="D3" s="188"/>
+      <c r="E3" s="187">
         <f>MAX(0,MIN(1,IF((A6+E6+L6) &lt;= 0.95, ROUND(A6+E6+L6,2), FLOOR((0.95+(A6+E6+L6-0.95)/5),0.01))))</f>
         <v>0.7</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="196">
+      <c r="F3" s="188"/>
+      <c r="G3" s="187">
         <f>MAX(0,MIN(1,IF((A6+G6+L6) &lt;= 0.95, ROUND(A6+G6+L6,2), FLOOR((0.95+(A6+G6+L6-0.95)/5),0.01))))</f>
         <v>0.77</v>
       </c>
-      <c r="H3" s="197"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="191"/>
+      <c r="H3" s="188"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="201"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -24536,18 +24536,18 @@
         <v>686</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="120" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="147" t="s">
+      <c r="D5" s="122"/>
+      <c r="E5" s="120" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="120" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="149"/>
+      <c r="H5" s="122"/>
       <c r="J5" s="75" t="s">
         <v>702</v>
       </c>
@@ -24562,21 +24562,21 @@
         <v>0.71</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="193">
+      <c r="C6" s="190">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>4.2499999999999996E-2</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="193">
+      <c r="D6" s="191"/>
+      <c r="E6" s="190">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>-1.4999999999999972E-2</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="193">
+      <c r="F6" s="191"/>
+      <c r="G6" s="190">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>5.7499999999999996E-2</v>
       </c>
-      <c r="H6" s="194"/>
+      <c r="H6" s="191"/>
       <c r="J6" s="90">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
         <v>0.1875</v>
@@ -24590,18 +24590,18 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="192" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195" t="s">
+      <c r="D7" s="192"/>
+      <c r="E7" s="192" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195" t="s">
+      <c r="F7" s="192"/>
+      <c r="G7" s="192" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="195"/>
+      <c r="H7" s="192"/>
       <c r="J7" s="89"/>
       <c r="K7" s="3"/>
       <c r="L7" s="87"/>
@@ -24775,7 +24775,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J12" s="141" t="s">
+      <c r="J12" s="129" t="s">
         <v>715</v>
       </c>
       <c r="K12" s="30"/>
@@ -24813,7 +24813,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J13" s="142"/>
+      <c r="J13" s="130"/>
       <c r="K13" s="30"/>
       <c r="L13" s="102" t="s">
         <v>708</v>
@@ -24849,7 +24849,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J14" s="142"/>
+      <c r="J14" s="130"/>
       <c r="K14" s="103"/>
       <c r="L14" s="102" t="s">
         <v>709</v>
@@ -24879,7 +24879,7 @@
         <f>SUM(H9:H14)</f>
         <v>-5.0000000000000001E-3</v>
       </c>
-      <c r="J15" s="142"/>
+      <c r="J15" s="130"/>
       <c r="K15" s="103"/>
       <c r="L15" s="102" t="s">
         <v>710</v>
@@ -24888,19 +24888,19 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192" t="s">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192" t="s">
+      <c r="F16" s="189"/>
+      <c r="G16" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="192"/>
-      <c r="J16" s="142"/>
+      <c r="H16" s="189"/>
+      <c r="J16" s="130"/>
       <c r="K16" s="103"/>
       <c r="L16" s="102" t="s">
         <v>711</v>
@@ -24931,7 +24931,7 @@
       <c r="H17" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="J17" s="142"/>
+      <c r="J17" s="130"/>
       <c r="K17" s="103"/>
       <c r="L17" s="102" t="s">
         <v>712</v>
@@ -24967,7 +24967,7 @@
         <f>B18*G18</f>
         <v>-0.05</v>
       </c>
-      <c r="J18" s="142"/>
+      <c r="J18" s="130"/>
       <c r="K18" s="103"/>
       <c r="L18" s="102" t="s">
         <v>713</v>
@@ -25003,7 +25003,7 @@
         <f t="shared" ref="H19:H23" si="5">B19*G19</f>
         <v>-0.01</v>
       </c>
-      <c r="J19" s="143"/>
+      <c r="J19" s="131"/>
       <c r="K19" s="103"/>
       <c r="L19" s="101" t="s">
         <v>714</v>
@@ -25161,18 +25161,18 @@
     <row r="25" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="192" t="s">
+      <c r="C25" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192" t="s">
+      <c r="D25" s="189"/>
+      <c r="E25" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192" t="s">
+      <c r="F25" s="189"/>
+      <c r="G25" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="192"/>
+      <c r="H25" s="189"/>
     </row>
     <row r="26" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -25414,18 +25414,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="192" t="s">
+      <c r="C34" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192" t="s">
+      <c r="D34" s="189"/>
+      <c r="E34" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192" t="s">
+      <c r="F34" s="189"/>
+      <c r="G34" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="192"/>
+      <c r="H34" s="189"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -25667,18 +25667,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="192" t="s">
+      <c r="C43" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192" t="s">
+      <c r="D43" s="189"/>
+      <c r="E43" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192" t="s">
+      <c r="F43" s="189"/>
+      <c r="G43" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="192"/>
+      <c r="H43" s="189"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -25920,18 +25920,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="192" t="s">
+      <c r="C52" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192" t="s">
+      <c r="D52" s="189"/>
+      <c r="E52" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192" t="s">
+      <c r="F52" s="189"/>
+      <c r="G52" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="192"/>
+      <c r="H52" s="189"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -26172,27 +26172,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
     <mergeCell ref="C52:D52"/>
     <mergeCell ref="E52:F52"/>
     <mergeCell ref="G52:H52"/>
@@ -26209,6 +26188,27 @@
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="G43:H43"/>
     <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26224,8 +26224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -26240,54 +26240,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="161"/>
-      <c r="F1" s="162"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="161"/>
     </row>
     <row r="2" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="163" t="s">
+      <c r="A2" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="165"/>
+      <c r="B2" s="157"/>
+      <c r="C2" s="157"/>
+      <c r="D2" s="157"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="158"/>
     </row>
     <row r="3" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="162" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="167"/>
-      <c r="C3" s="167"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="168"/>
+      <c r="B3" s="163"/>
+      <c r="C3" s="163"/>
+      <c r="D3" s="163"/>
+      <c r="E3" s="163"/>
+      <c r="F3" s="164"/>
     </row>
     <row r="4" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="163" t="s">
+      <c r="A4" s="156" t="s">
         <v>719</v>
       </c>
-      <c r="B4" s="164"/>
-      <c r="C4" s="164"/>
-      <c r="D4" s="164"/>
-      <c r="E4" s="164"/>
-      <c r="F4" s="165"/>
+      <c r="B4" s="157"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="157"/>
+      <c r="F4" s="158"/>
     </row>
     <row r="5" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="169" t="s">
+      <c r="A5" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="171"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
+      <c r="E5" s="166"/>
+      <c r="F5" s="167"/>
     </row>
     <row r="6" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
@@ -26316,10 +26316,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="162" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="167"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="16">
         <v>0</v>
       </c>
@@ -26335,10 +26335,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="156" t="s">
+      <c r="A9" s="169" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="157"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="11">
         <v>0</v>
       </c>
@@ -26354,10 +26354,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="173" t="s">
+      <c r="A10" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="173"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="11">
         <v>0</v>
       </c>
@@ -26373,10 +26373,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="173"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="11">
         <v>0</v>
       </c>
@@ -26392,10 +26392,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="173" t="s">
+      <c r="A12" s="171" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="173"/>
+      <c r="B12" s="171"/>
       <c r="C12" s="11">
         <v>0</v>
       </c>
@@ -26411,10 +26411,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="156" t="s">
+      <c r="A13" s="169" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="157"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="11">
         <v>0</v>
       </c>
@@ -26430,10 +26430,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="156" t="s">
+      <c r="A14" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="157"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="11">
         <v>0</v>
       </c>
@@ -26449,10 +26449,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="158" t="s">
+      <c r="A15" s="172" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="159"/>
+      <c r="B15" s="173"/>
       <c r="C15" s="18">
         <v>0</v>
       </c>
@@ -26469,11 +26469,11 @@
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="172" t="s">
+      <c r="B16" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="E16" s="106">
         <f>SUM(E8:E15)</f>
         <v>0</v>
@@ -26492,88 +26492,93 @@
       <c r="A18" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="160" t="s">
+      <c r="B18" s="159" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="162"/>
+      <c r="C18" s="160"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="161"/>
     </row>
     <row r="19" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="163" t="s">
+      <c r="B19" s="156" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="164"/>
-      <c r="D19" s="164"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="165"/>
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
     </row>
     <row r="20" spans="1:6" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="163" t="s">
+      <c r="B20" s="156" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="164"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="165"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="157"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
     </row>
     <row r="21" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="156" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="164"/>
-      <c r="D21" s="164"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="165"/>
+      <c r="C21" s="157"/>
+      <c r="D21" s="157"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="B22" s="163" t="s">
+      <c r="B22" s="156" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="164"/>
-      <c r="D22" s="164"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="165"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="157"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="156" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="164"/>
-      <c r="D23" s="164"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="165"/>
+      <c r="C23" s="157"/>
+      <c r="D23" s="157"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
     </row>
     <row r="24" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="163" t="s">
+      <c r="B24" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="164"/>
-      <c r="D24" s="164"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="165"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="157"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="A1:F1"/>
@@ -26590,11 +26595,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -26610,7 +26610,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
@@ -26653,7 +26653,7 @@
       <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>878</v>
       </c>
       <c r="D2" s="64">
@@ -26676,7 +26676,7 @@
       <c r="B3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="179"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -26697,7 +26697,7 @@
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -26718,7 +26718,7 @@
       <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
         <v>18</v>
@@ -26739,7 +26739,7 @@
       <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>1</v>
@@ -26760,7 +26760,7 @@
       <c r="B7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
         <v>7</v>
@@ -26781,7 +26781,7 @@
       <c r="B8" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Professional")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -26796,11 +26796,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Innovative")*(D$10:D$250="Partial"))</f>
         <v>0</v>
@@ -26815,10 +26815,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="179" t="s">
         <v>718</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="7" t="s">
         <v>860</v>
       </c>
@@ -26941,10 +26941,10 @@
       <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6" ht="28.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="174" t="s">
+      <c r="A17" s="179" t="s">
         <v>732</v>
       </c>
-      <c r="B17" s="175"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="7" t="s">
         <v>862</v>
       </c>
@@ -27163,10 +27163,10 @@
       <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="176" t="s">
+      <c r="A29" s="181" t="s">
         <v>733</v>
       </c>
-      <c r="B29" s="177"/>
+      <c r="B29" s="182"/>
       <c r="C29" s="7" t="s">
         <v>886</v>
       </c>
@@ -27434,7 +27434,7 @@
       </c>
       <c r="F43" s="58"/>
     </row>
-    <row r="44" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="66" t="s">
         <v>97</v>
       </c>
@@ -27560,7 +27560,7 @@
       </c>
       <c r="F50" s="58"/>
     </row>
-    <row r="51" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="67" t="s">
         <v>218</v>
       </c>
@@ -27632,7 +27632,7 @@
       </c>
       <c r="F54" s="58"/>
     </row>
-    <row r="55" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="66" t="s">
         <v>218</v>
       </c>
@@ -27651,10 +27651,10 @@
       <c r="F55" s="58"/>
     </row>
     <row r="56" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="174" t="s">
+      <c r="A56" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="B56" s="175"/>
+      <c r="B56" s="180"/>
       <c r="C56" s="7" t="s">
         <v>88</v>
       </c>
@@ -27704,7 +27704,7 @@
       </c>
       <c r="F58" s="58"/>
     </row>
-    <row r="59" spans="1:6" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="66" t="s">
         <v>95</v>
       </c>
@@ -27891,10 +27891,10 @@
       <c r="F68" s="58"/>
     </row>
     <row r="69" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="174" t="s">
+      <c r="A69" s="179" t="s">
         <v>135</v>
       </c>
-      <c r="B69" s="175"/>
+      <c r="B69" s="180"/>
       <c r="C69" s="7" t="s">
         <v>88</v>
       </c>
@@ -28053,10 +28053,10 @@
       <c r="F77" s="58"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="174" t="s">
+      <c r="A78" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="175"/>
+      <c r="B78" s="180"/>
       <c r="C78" s="7" t="s">
         <v>88</v>
       </c>
@@ -28167,10 +28167,10 @@
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="174" t="s">
+      <c r="A84" s="179" t="s">
         <v>163</v>
       </c>
-      <c r="B84" s="175"/>
+      <c r="B84" s="180"/>
       <c r="C84" s="7" t="s">
         <v>88</v>
       </c>
@@ -28417,10 +28417,10 @@
       <c r="F96" s="58"/>
     </row>
     <row r="97" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="174" t="s">
+      <c r="A97" s="179" t="s">
         <v>187</v>
       </c>
-      <c r="B97" s="175"/>
+      <c r="B97" s="180"/>
       <c r="C97" s="7" t="s">
         <v>88</v>
       </c>
@@ -28511,10 +28511,10 @@
       <c r="F101" s="58"/>
     </row>
     <row r="102" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="174" t="s">
+      <c r="A102" s="179" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="175"/>
+      <c r="B102" s="180"/>
       <c r="C102" s="7" t="s">
         <v>88</v>
       </c>
@@ -28564,7 +28564,7 @@
       </c>
       <c r="F104" s="58"/>
     </row>
-    <row r="105" spans="1:6" ht="138.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="152.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="66" t="s">
         <v>95</v>
       </c>
@@ -28659,10 +28659,10 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="174" t="s">
+      <c r="A110" s="179" t="s">
         <v>205</v>
       </c>
-      <c r="B110" s="175"/>
+      <c r="B110" s="180"/>
       <c r="C110" s="7" t="s">
         <v>88</v>
       </c>
@@ -28731,10 +28731,10 @@
       <c r="F113" s="58"/>
     </row>
     <row r="114" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="174" t="s">
+      <c r="A114" s="179" t="s">
         <v>212</v>
       </c>
-      <c r="B114" s="175"/>
+      <c r="B114" s="180"/>
       <c r="C114" s="7" t="s">
         <v>88</v>
       </c>
@@ -28803,10 +28803,10 @@
       <c r="F117" s="58"/>
     </row>
     <row r="118" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="174" t="s">
+      <c r="A118" s="179" t="s">
         <v>219</v>
       </c>
-      <c r="B118" s="175"/>
+      <c r="B118" s="180"/>
       <c r="C118" s="7" t="s">
         <v>816</v>
       </c>
@@ -28966,11 +28966,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A56:B56"/>
     <mergeCell ref="A110:B110"/>
     <mergeCell ref="A114:B114"/>
     <mergeCell ref="A118:B118"/>
@@ -28980,6 +28975,11 @@
     <mergeCell ref="A84:B84"/>
     <mergeCell ref="A97:B97"/>
     <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C2:C9"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
     <cfRule type="beginsWith" dxfId="1417" priority="354" stopIfTrue="1" operator="beginsWith" text="Innovative">
@@ -29832,7 +29832,7 @@
       <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>854</v>
       </c>
       <c r="D2" s="64">
@@ -29855,7 +29855,7 @@
       <c r="B3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="179"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Basic")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -29876,7 +29876,7 @@
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>0</v>
@@ -29897,7 +29897,7 @@
       <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Intermediate")*(D$10:D$241="Partial"))</f>
         <v>6</v>
@@ -29918,7 +29918,7 @@
       <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Missing"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>10</v>
@@ -29939,7 +29939,7 @@
       <c r="B7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Advanced")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -29960,7 +29960,7 @@
       <c r="B8" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Professional")*(D$10:D$241="Partial"))</f>
         <v>1</v>
@@ -29975,11 +29975,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="64">
         <f>SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Completed"))+SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$241="Innovative")*(D$10:D$241="Partial"))</f>
         <v>2</v>
@@ -29994,10 +29994,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="179" t="s">
         <v>803</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="7" t="s">
         <v>855</v>
       </c>
@@ -30084,10 +30084,10 @@
       <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="174" t="s">
+      <c r="A15" s="179" t="s">
         <v>249</v>
       </c>
-      <c r="B15" s="175"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="7" t="s">
         <v>88</v>
       </c>
@@ -30236,10 +30236,10 @@
       <c r="F22" s="58"/>
     </row>
     <row r="23" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="174" t="s">
+      <c r="A23" s="179" t="s">
         <v>257</v>
       </c>
-      <c r="B23" s="175"/>
+      <c r="B23" s="180"/>
       <c r="C23" s="7" t="s">
         <v>88</v>
       </c>
@@ -30384,10 +30384,10 @@
       <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="179" t="s">
         <v>262</v>
       </c>
-      <c r="B31" s="175"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="7" t="s">
         <v>88</v>
       </c>
@@ -30870,10 +30870,10 @@
       <c r="F56" s="58"/>
     </row>
     <row r="57" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="174" t="s">
+      <c r="A57" s="179" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="175"/>
+      <c r="B57" s="180"/>
       <c r="C57" s="71" t="s">
         <v>825</v>
       </c>
@@ -31093,7 +31093,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="42" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="117" t="s">
         <v>134</v>
       </c>
@@ -31272,10 +31272,10 @@
       <c r="F77" s="58"/>
     </row>
     <row r="78" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="174" t="s">
+      <c r="A78" s="179" t="s">
         <v>299</v>
       </c>
-      <c r="B78" s="175"/>
+      <c r="B78" s="180"/>
       <c r="C78" s="7" t="s">
         <v>88</v>
       </c>
@@ -33205,7 +33205,7 @@
       <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>823</v>
       </c>
       <c r="D2" s="64">
@@ -33228,7 +33228,7 @@
       <c r="B3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="179"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Basic")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -33249,7 +33249,7 @@
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -33270,7 +33270,7 @@
       <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Intermediate")*(D$10:D$177="Partial"))</f>
         <v>5</v>
@@ -33291,7 +33291,7 @@
       <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Missing"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>5.5</v>
@@ -33312,7 +33312,7 @@
       <c r="B7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Advanced")*(D$10:D$177="Partial"))</f>
         <v>1.5</v>
@@ -33333,7 +33333,7 @@
       <c r="B8" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Professional")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -33348,11 +33348,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="64">
         <f>SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Completed"))+SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$177="Innovative")*(D$10:D$177="Partial"))</f>
         <v>0</v>
@@ -33367,10 +33367,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="179" t="s">
         <v>237</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
@@ -33595,10 +33595,10 @@
       <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="179" t="s">
         <v>528</v>
       </c>
-      <c r="B22" s="175"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
@@ -33757,10 +33757,10 @@
       <c r="F30" s="58"/>
     </row>
     <row r="31" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="174" t="s">
+      <c r="A31" s="179" t="s">
         <v>544</v>
       </c>
-      <c r="B31" s="175"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="7" t="s">
         <v>88</v>
       </c>
@@ -33983,10 +33983,10 @@
       <c r="F42" s="58"/>
     </row>
     <row r="43" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="174" t="s">
+      <c r="A43" s="179" t="s">
         <v>655</v>
       </c>
-      <c r="B43" s="175"/>
+      <c r="B43" s="180"/>
       <c r="C43" s="7" t="s">
         <v>88</v>
       </c>
@@ -34317,7 +34317,7 @@
       <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>379</v>
       </c>
       <c r="D2" s="64">
@@ -34340,7 +34340,7 @@
       <c r="B3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="179"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Basic")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -34361,7 +34361,7 @@
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -34382,7 +34382,7 @@
       <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Intermediate")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -34403,7 +34403,7 @@
       <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Missing"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -34424,7 +34424,7 @@
       <c r="B7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Advanced")*(D$10:D$248="Partial"))</f>
         <v>2</v>
@@ -34445,7 +34445,7 @@
       <c r="B8" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Professional")*(D$10:D$248="Partial"))</f>
         <v>0</v>
@@ -34460,11 +34460,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="64">
         <f>SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Completed"))+SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$248="Innovative")*(D$10:D$248="Partial"))</f>
         <v>1</v>
@@ -34479,10 +34479,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="179" t="s">
         <v>380</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
@@ -34591,10 +34591,10 @@
       <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="174" t="s">
+      <c r="A16" s="179" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="175"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="7" t="s">
         <v>88</v>
       </c>
@@ -34699,10 +34699,10 @@
       <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="179" t="s">
         <v>402</v>
       </c>
-      <c r="B22" s="175"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="7" t="s">
         <v>819</v>
       </c>
@@ -34825,10 +34825,10 @@
       <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="179" t="s">
         <v>415</v>
       </c>
-      <c r="B29" s="175"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="7" t="s">
         <v>817</v>
       </c>
@@ -34971,10 +34971,10 @@
       <c r="F36" s="58"/>
     </row>
     <row r="37" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="174" t="s">
+      <c r="A37" s="179" t="s">
         <v>430</v>
       </c>
-      <c r="B37" s="175"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="7" t="s">
         <v>818</v>
       </c>
@@ -35097,10 +35097,10 @@
       <c r="F43" s="58"/>
     </row>
     <row r="44" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="174" t="s">
+      <c r="A44" s="179" t="s">
         <v>443</v>
       </c>
-      <c r="B44" s="175"/>
+      <c r="B44" s="180"/>
       <c r="C44" s="7" t="s">
         <v>88</v>
       </c>
@@ -36283,7 +36283,7 @@
       <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>468</v>
       </c>
       <c r="D2" s="64">
@@ -36306,7 +36306,7 @@
       <c r="B3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="179"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Basic")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -36327,7 +36327,7 @@
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -36348,7 +36348,7 @@
       <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Intermediate")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -36369,7 +36369,7 @@
       <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Missing"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>3</v>
@@ -36390,7 +36390,7 @@
       <c r="B7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Advanced")*(D$10:D$227="Partial"))</f>
         <v>6</v>
@@ -36411,7 +36411,7 @@
       <c r="B8" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Professional")*(D$10:D$227="Partial"))</f>
         <v>2</v>
@@ -36426,11 +36426,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="64">
         <f>SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Completed"))+SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$227="Innovative")*(D$10:D$227="Partial"))</f>
         <v>0</v>
@@ -36445,10 +36445,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="179" t="s">
         <v>469</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
@@ -36809,10 +36809,10 @@
       <c r="F28" s="58"/>
     </row>
     <row r="29" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="174" t="s">
+      <c r="A29" s="179" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="175"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="7" t="s">
         <v>814</v>
       </c>
@@ -37029,10 +37029,10 @@
       <c r="F40" s="58"/>
     </row>
     <row r="41" spans="1:6" s="25" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="175"/>
+      <c r="B41" s="180"/>
       <c r="C41" s="7" t="s">
         <v>88</v>
       </c>
@@ -37193,10 +37193,10 @@
       <c r="F49" s="58"/>
     </row>
     <row r="50" spans="1:6" s="25" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="174" t="s">
+      <c r="A50" s="179" t="s">
         <v>583</v>
       </c>
-      <c r="B50" s="175"/>
+      <c r="B50" s="180"/>
       <c r="C50" s="71" t="s">
         <v>815</v>
       </c>
@@ -38188,7 +38188,7 @@
       <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="178" t="s">
+      <c r="C2" s="174" t="s">
         <v>604</v>
       </c>
       <c r="D2" s="64">
@@ -38211,7 +38211,7 @@
       <c r="B3" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="179"/>
+      <c r="C3" s="175"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Basic")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -38232,7 +38232,7 @@
       <c r="B4" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="179"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>0</v>
@@ -38253,7 +38253,7 @@
       <c r="B5" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="175"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Intermediate")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -38274,7 +38274,7 @@
       <c r="B6" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="179"/>
+      <c r="C6" s="175"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Missing"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>1</v>
@@ -38295,7 +38295,7 @@
       <c r="B7" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="179"/>
+      <c r="C7" s="175"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Advanced")*(D$10:D$240="Partial"))</f>
         <v>7</v>
@@ -38316,7 +38316,7 @@
       <c r="B8" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="179"/>
+      <c r="C8" s="175"/>
       <c r="D8" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Professional")*(D$10:D$240="Partial"))</f>
         <v>4</v>
@@ -38331,11 +38331,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="181" t="s">
+      <c r="A9" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="180"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="176"/>
       <c r="D9" s="64">
         <f>SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Completed"))+SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$240="Innovative")*(D$10:D$240="Partial"))</f>
         <v>3</v>
@@ -38350,10 +38350,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="174" t="s">
+      <c r="A10" s="179" t="s">
         <v>605</v>
       </c>
-      <c r="B10" s="175"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="71" t="s">
         <v>808</v>
       </c>
@@ -38572,10 +38572,10 @@
       <c r="F21" s="58"/>
     </row>
     <row r="22" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="174" t="s">
+      <c r="A22" s="179" t="s">
         <v>628</v>
       </c>
-      <c r="B22" s="175"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
@@ -38790,10 +38790,10 @@
       <c r="F33" s="58"/>
     </row>
     <row r="34" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="174" t="s">
+      <c r="A34" s="179" t="s">
         <v>804</v>
       </c>
-      <c r="B34" s="175"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="7" t="s">
         <v>809</v>
       </c>
@@ -38918,10 +38918,10 @@
       <c r="F40" s="58"/>
     </row>
     <row r="41" spans="1:6" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="174" t="s">
+      <c r="A41" s="179" t="s">
         <v>674</v>
       </c>
-      <c r="B41" s="175"/>
+      <c r="B41" s="180"/>
       <c r="C41" s="7" t="s">
         <v>88</v>
       </c>
@@ -39848,65 +39848,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="193" t="s">
         <v>699</v>
       </c>
       <c r="B1" s="73"/>
-      <c r="C1" s="198" t="s">
+      <c r="C1" s="183" t="s">
         <v>683</v>
       </c>
-      <c r="D1" s="199"/>
-      <c r="E1" s="198" t="s">
+      <c r="D1" s="184"/>
+      <c r="E1" s="183" t="s">
         <v>684</v>
       </c>
-      <c r="F1" s="199"/>
-      <c r="G1" s="198" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="183" t="s">
         <v>685</v>
       </c>
-      <c r="H1" s="199"/>
+      <c r="H1" s="184"/>
     </row>
     <row r="2" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="184"/>
+      <c r="A2" s="194"/>
       <c r="B2" s="73"/>
-      <c r="C2" s="200" t="s">
+      <c r="C2" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="D2" s="201"/>
-      <c r="E2" s="200" t="s">
+      <c r="D2" s="186"/>
+      <c r="E2" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="201"/>
-      <c r="G2" s="200" t="s">
+      <c r="F2" s="186"/>
+      <c r="G2" s="185" t="s">
         <v>682</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="J2" s="186" t="s">
+      <c r="H2" s="186"/>
+      <c r="J2" s="196" t="s">
         <v>701</v>
       </c>
-      <c r="K2" s="187"/>
-      <c r="L2" s="188"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="198"/>
     </row>
     <row r="3" spans="1:12" ht="22.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="185"/>
+      <c r="A3" s="195"/>
       <c r="B3" s="74"/>
-      <c r="C3" s="196">
+      <c r="C3" s="187">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),0.01))))</f>
         <v>0.95</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="196">
+      <c r="D3" s="188"/>
+      <c r="E3" s="187">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),0.01))))</f>
         <v>0.95</v>
       </c>
-      <c r="F3" s="197"/>
-      <c r="G3" s="196">
+      <c r="F3" s="188"/>
+      <c r="G3" s="187">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),0.01))))</f>
         <v>0.95</v>
       </c>
-      <c r="H3" s="197"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="191"/>
+      <c r="H3" s="188"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="200"/>
+      <c r="L3" s="201"/>
     </row>
     <row r="4" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
@@ -39923,19 +39923,19 @@
         <v>686</v>
       </c>
       <c r="B5" s="10"/>
-      <c r="C5" s="147" t="s">
+      <c r="C5" s="120" t="s">
         <v>687</v>
       </c>
-      <c r="D5" s="149"/>
-      <c r="E5" s="147" t="s">
+      <c r="D5" s="122"/>
+      <c r="E5" s="120" t="s">
         <v>688</v>
       </c>
-      <c r="F5" s="149"/>
-      <c r="G5" s="147" t="s">
+      <c r="F5" s="122"/>
+      <c r="G5" s="120" t="s">
         <v>689</v>
       </c>
-      <c r="H5" s="149"/>
-      <c r="J5" s="141" t="s">
+      <c r="H5" s="122"/>
+      <c r="J5" s="129" t="s">
         <v>715</v>
       </c>
       <c r="K5" s="30"/>
@@ -39949,22 +39949,22 @@
         <v>0.71</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="193">
+      <c r="C6" s="190">
         <f>D15+D24+D33+D42+D51+D60</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="D6" s="194"/>
-      <c r="E6" s="193">
+      <c r="D6" s="191"/>
+      <c r="E6" s="190">
         <f>F15+F24+F33+F42+F51+F60</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="F6" s="194"/>
-      <c r="G6" s="193">
+      <c r="F6" s="191"/>
+      <c r="G6" s="190">
         <f>H15+H24+H33+H42+H51+H60</f>
         <v>0.24000000000000002</v>
       </c>
-      <c r="H6" s="194"/>
-      <c r="J6" s="142"/>
+      <c r="H6" s="191"/>
+      <c r="J6" s="130"/>
       <c r="K6" s="30"/>
       <c r="L6" s="102" t="s">
         <v>708</v>
@@ -39973,19 +39973,19 @@
     <row r="7" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="195" t="s">
+      <c r="C7" s="192" t="s">
         <v>690</v>
       </c>
-      <c r="D7" s="195"/>
-      <c r="E7" s="195" t="s">
+      <c r="D7" s="192"/>
+      <c r="E7" s="192" t="s">
         <v>691</v>
       </c>
-      <c r="F7" s="195"/>
-      <c r="G7" s="195" t="s">
+      <c r="F7" s="192"/>
+      <c r="G7" s="192" t="s">
         <v>692</v>
       </c>
-      <c r="H7" s="195"/>
-      <c r="J7" s="142"/>
+      <c r="H7" s="192"/>
+      <c r="J7" s="130"/>
       <c r="K7" s="103"/>
       <c r="L7" s="102" t="s">
         <v>709</v>
@@ -40016,7 +40016,7 @@
       <c r="H8" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="142"/>
+      <c r="J8" s="130"/>
       <c r="K8" s="103"/>
       <c r="L8" s="102" t="s">
         <v>710</v>
@@ -40052,7 +40052,7 @@
         <f>B9*G9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="142"/>
+      <c r="J9" s="130"/>
       <c r="K9" s="103"/>
       <c r="L9" s="102" t="s">
         <v>711</v>
@@ -40088,7 +40088,7 @@
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="142"/>
+      <c r="J10" s="130"/>
       <c r="K10" s="103"/>
       <c r="L10" s="102" t="s">
         <v>712</v>
@@ -40124,7 +40124,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J11" s="142"/>
+      <c r="J11" s="130"/>
       <c r="K11" s="103"/>
       <c r="L11" s="102" t="s">
         <v>713</v>
@@ -40160,7 +40160,7 @@
         <f t="shared" si="2"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J12" s="143"/>
+      <c r="J12" s="131"/>
       <c r="K12" s="103"/>
       <c r="L12" s="101" t="s">
         <v>714</v>
@@ -40256,18 +40256,18 @@
     <row r="16" spans="1:12" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="192" t="s">
+      <c r="C16" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192" t="s">
+      <c r="D16" s="189"/>
+      <c r="E16" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192" t="s">
+      <c r="F16" s="189"/>
+      <c r="G16" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H16" s="192"/>
+      <c r="H16" s="189"/>
     </row>
     <row r="17" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
@@ -40509,18 +40509,18 @@
     <row r="25" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="192" t="s">
+      <c r="C25" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192" t="s">
+      <c r="D25" s="189"/>
+      <c r="E25" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192" t="s">
+      <c r="F25" s="189"/>
+      <c r="G25" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H25" s="192"/>
+      <c r="H25" s="189"/>
     </row>
     <row r="26" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
@@ -40762,18 +40762,18 @@
     <row r="34" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3"/>
       <c r="B34" s="10"/>
-      <c r="C34" s="192" t="s">
+      <c r="C34" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D34" s="192"/>
-      <c r="E34" s="192" t="s">
+      <c r="D34" s="189"/>
+      <c r="E34" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F34" s="192"/>
-      <c r="G34" s="192" t="s">
+      <c r="F34" s="189"/>
+      <c r="G34" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H34" s="192"/>
+      <c r="H34" s="189"/>
     </row>
     <row r="35" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
@@ -41015,18 +41015,18 @@
     <row r="43" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3"/>
       <c r="B43" s="10"/>
-      <c r="C43" s="192" t="s">
+      <c r="C43" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D43" s="192"/>
-      <c r="E43" s="192" t="s">
+      <c r="D43" s="189"/>
+      <c r="E43" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F43" s="192"/>
-      <c r="G43" s="192" t="s">
+      <c r="F43" s="189"/>
+      <c r="G43" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H43" s="192"/>
+      <c r="H43" s="189"/>
     </row>
     <row r="44" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
@@ -41268,18 +41268,18 @@
     <row r="52" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="3"/>
       <c r="B52" s="10"/>
-      <c r="C52" s="192" t="s">
+      <c r="C52" s="189" t="s">
         <v>690</v>
       </c>
-      <c r="D52" s="192"/>
-      <c r="E52" s="192" t="s">
+      <c r="D52" s="189"/>
+      <c r="E52" s="189" t="s">
         <v>691</v>
       </c>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192" t="s">
+      <c r="F52" s="189"/>
+      <c r="G52" s="189" t="s">
         <v>692</v>
       </c>
-      <c r="H52" s="192"/>
+      <c r="H52" s="189"/>
     </row>
     <row r="53" spans="1:8" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
@@ -41520,26 +41520,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="J2:L3"/>
     <mergeCell ref="J5:J12"/>
@@ -41556,6 +41536,26 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
     <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Documents+Tools/GAM_Project_Yarbus 2014-12-3.xlsx
+++ b/Documents+Tools/GAM_Project_Yarbus 2014-12-3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="13275" windowHeight="7995" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView minimized="1" xWindow="2790" yWindow="0" windowWidth="13275" windowHeight="7995" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Game Data" sheetId="1" r:id="rId1"/>
@@ -3436,7 +3436,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0%;[Red]\-0%"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3615,6 +3615,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4193,7 +4200,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -4805,6 +4812,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -4964,7 +4974,215 @@
     <cellStyle name="Hyperlink" xfId="155" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1506">
+  <dxfs count="1522">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF35556A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB80615"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD2CA07"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF35556A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFB80615"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD2CA07"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -25586,7 +25804,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C9" sqref="C9:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -25723,7 +25941,7 @@
       <c r="H6" s="194"/>
       <c r="J6" s="90">
         <f>ABS('Student Grade'!$F$15+'Student Grade'!$D$24+'Student Grade'!$H$33+'Student Grade'!$F$42+'Student Grade'!$F$51+'Student Grade'!$F$60-$F$15-$D$24-$D$33-$H$42-$F$51-$F$60)</f>
-        <v>0.1925</v>
+        <v>0.1225</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="88">
@@ -27754,8 +27972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -27802,7 +28020,7 @@
       </c>
       <c r="D2" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Required")*(E$10:E$250="Partial"))</f>
@@ -27823,7 +28041,7 @@
       <c r="C3" s="179"/>
       <c r="D3" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Basic")*(E$10:E$250="Partial"))</f>
@@ -27844,7 +28062,7 @@
       <c r="C4" s="179"/>
       <c r="D4" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -27865,7 +28083,7 @@
       <c r="C5" s="179"/>
       <c r="D5" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(D$10:D$250="Partial"))</f>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Intermediate")*(E$10:E$250="Partial"))</f>
@@ -27886,7 +28104,7 @@
       <c r="C6" s="179"/>
       <c r="D6" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Missing"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -27907,7 +28125,7 @@
       <c r="C7" s="179"/>
       <c r="D7" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(D$10:D$250="Partial"))</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" s="64">
         <f>SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Completed"))+SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Pre-Passed"))+0.5*SUMPRODUCT(($A$10:$A$250="Advanced")*(E$10:E$250="Partial"))</f>
@@ -29005,7 +29223,7 @@
       <c r="B67" s="58" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="205" t="s">
         <v>131</v>
       </c>
       <c r="D67" s="7" t="s">
@@ -29225,7 +29443,7 @@
         <v>154</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E79" s="7" t="s">
         <v>73</v>
@@ -29243,7 +29461,7 @@
         <v>156</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E80" s="7" t="s">
         <v>73</v>
@@ -29263,7 +29481,7 @@
         <v>158</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E81" s="7" t="s">
         <v>73</v>
@@ -29283,7 +29501,7 @@
         <v>160</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E82" s="7" t="s">
         <v>73</v>
@@ -30126,822 +30344,822 @@
     <mergeCell ref="A102:B102"/>
   </mergeCells>
   <conditionalFormatting sqref="A10 A33:A37 A39:A41 A109:A251 A14:A31 A95:A107 A56:A80 A82:A87">
-    <cfRule type="beginsWith" dxfId="1505" priority="362" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1521" priority="362" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A10,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1504" priority="363" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1520" priority="363" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A10,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1503" priority="364" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1519" priority="364" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A10,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1502" priority="365" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1518" priority="365" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A10,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1501" priority="366" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1517" priority="366" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A10,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1500" priority="367" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1516" priority="367" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A10,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1499" priority="368" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1515" priority="368" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40 D30:D39 D110:E251 D10:E30 E109 D56:E107">
-    <cfRule type="beginsWith" dxfId="1498" priority="354" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1514" priority="354" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D10,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1497" priority="355" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1513" priority="355" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D10,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1496" priority="357" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1512" priority="357" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D10,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1495" priority="358" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1511" priority="358" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D10,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1494" priority="359" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1510" priority="359" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D10,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1493" priority="360" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1509" priority="360" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D10,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1492" priority="361" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1508" priority="361" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D10,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1491" priority="369" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1507" priority="369" stopIfTrue="1">
       <formula>LEN(TRIM(D10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="beginsWith" dxfId="1490" priority="347" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1506" priority="347" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A11,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1489" priority="348" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1505" priority="348" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A11,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1488" priority="349" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1504" priority="349" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A11,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1487" priority="350" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1503" priority="350" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A11,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1486" priority="351" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1502" priority="351" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A11,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1485" priority="352" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1501" priority="352" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A11,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1484" priority="353" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1500" priority="353" stopIfTrue="1">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:A13">
-    <cfRule type="beginsWith" dxfId="1483" priority="340" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1499" priority="340" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A12,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1482" priority="341" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1498" priority="341" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A12,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1481" priority="342" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1497" priority="342" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A12,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1480" priority="343" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1496" priority="343" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A12,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1479" priority="344" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1495" priority="344" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A12,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1478" priority="345" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1494" priority="345" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A12,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1477" priority="346" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1493" priority="346" stopIfTrue="1">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="beginsWith" dxfId="1476" priority="333" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1492" priority="333" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A13,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1475" priority="334" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1491" priority="334" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A13,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1474" priority="335" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1490" priority="335" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A13,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1473" priority="336" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1489" priority="336" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A13,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1472" priority="337" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1488" priority="337" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A13,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1471" priority="338" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1487" priority="338" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A13,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1470" priority="339" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1486" priority="339" stopIfTrue="1">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A108">
-    <cfRule type="beginsWith" dxfId="1469" priority="310" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1485" priority="310" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A108,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1468" priority="311" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1484" priority="311" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A108,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1467" priority="312" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1483" priority="312" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A108,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1466" priority="313" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1482" priority="313" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A108,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1465" priority="314" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1481" priority="314" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A108,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1464" priority="315" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1480" priority="315" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A108,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1463" priority="316" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1479" priority="316" stopIfTrue="1">
       <formula>LEN(TRIM(A108))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="beginsWith" dxfId="1462" priority="303" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1478" priority="303" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E108,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1461" priority="304" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1477" priority="304" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E108,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1460" priority="305" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1476" priority="305" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E108,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1459" priority="306" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1475" priority="306" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E108,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1458" priority="307" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1474" priority="307" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E108,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1457" priority="308" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1473" priority="308" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E108,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1456" priority="309" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1472" priority="309" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E108,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1455" priority="317" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1471" priority="317" stopIfTrue="1">
       <formula>LEN(TRIM(E108))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A51">
-    <cfRule type="beginsWith" dxfId="1454" priority="295" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1470" priority="295" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A51,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1453" priority="296" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1469" priority="296" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A51,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1452" priority="297" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1468" priority="297" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A51,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1451" priority="298" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1467" priority="298" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A51,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1450" priority="299" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1466" priority="299" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A51,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1449" priority="300" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1465" priority="300" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A51,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1448" priority="301" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1464" priority="301" stopIfTrue="1">
       <formula>LEN(TRIM(A51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A47">
-    <cfRule type="beginsWith" dxfId="1447" priority="280" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1463" priority="280" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A47,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1446" priority="281" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1462" priority="281" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A47,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1445" priority="282" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1461" priority="282" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A47,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1444" priority="283" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1460" priority="283" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A47,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1443" priority="284" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1459" priority="284" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A47,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1442" priority="285" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1458" priority="285" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A47,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1441" priority="286" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1457" priority="286" stopIfTrue="1">
       <formula>LEN(TRIM(A47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A42">
-    <cfRule type="beginsWith" dxfId="1440" priority="265" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1456" priority="265" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A42,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1439" priority="266" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1455" priority="266" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A42,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1438" priority="267" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1454" priority="267" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A42,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1437" priority="268" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1453" priority="268" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A42,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1436" priority="269" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1452" priority="269" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A42,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1435" priority="270" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1451" priority="270" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A42,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1434" priority="271" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1450" priority="271" stopIfTrue="1">
       <formula>LEN(TRIM(A42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A53">
-    <cfRule type="beginsWith" dxfId="1433" priority="251" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1449" priority="251" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A53,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1432" priority="252" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1448" priority="252" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A53,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1431" priority="253" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1447" priority="253" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A53,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1430" priority="254" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1446" priority="254" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A53,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1429" priority="255" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1445" priority="255" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A53,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1428" priority="256" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1444" priority="256" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A53,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1427" priority="257" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1443" priority="257" stopIfTrue="1">
       <formula>LEN(TRIM(A53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A46">
-    <cfRule type="beginsWith" dxfId="1426" priority="243" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1442" priority="243" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A46,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1425" priority="244" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1441" priority="244" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A46,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1424" priority="245" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1440" priority="245" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A46,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1423" priority="246" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1439" priority="246" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A46,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1422" priority="247" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1438" priority="247" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A46,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1421" priority="248" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1437" priority="248" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A46,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1420" priority="249" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1436" priority="249" stopIfTrue="1">
       <formula>LEN(TRIM(A46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A52">
-    <cfRule type="beginsWith" dxfId="1419" priority="221" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1435" priority="221" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A52,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1418" priority="222" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1434" priority="222" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A52,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1417" priority="223" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1433" priority="223" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A52,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1416" priority="224" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1432" priority="224" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A52,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1415" priority="225" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1431" priority="225" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A52,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1414" priority="226" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1430" priority="226" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A52,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1413" priority="227" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1429" priority="227" stopIfTrue="1">
       <formula>LEN(TRIM(A52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45">
-    <cfRule type="beginsWith" dxfId="1412" priority="213" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1428" priority="213" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A45,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1411" priority="214" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1427" priority="214" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A45,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1410" priority="215" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1426" priority="215" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A45,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1409" priority="216" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1425" priority="216" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A45,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1408" priority="217" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1424" priority="217" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A45,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1407" priority="218" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1423" priority="218" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A45,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1406" priority="219" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1422" priority="219" stopIfTrue="1">
       <formula>LEN(TRIM(A45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50">
-    <cfRule type="beginsWith" dxfId="1405" priority="198" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1421" priority="198" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A50,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1404" priority="199" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1420" priority="199" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A50,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1403" priority="200" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1419" priority="200" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A50,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1402" priority="201" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1418" priority="201" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A50,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1401" priority="202" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1417" priority="202" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A50,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1400" priority="203" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1416" priority="203" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A50,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1399" priority="204" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1415" priority="204" stopIfTrue="1">
       <formula>LEN(TRIM(A50))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="beginsWith" dxfId="1398" priority="183" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1414" priority="183" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A32,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1397" priority="184" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1413" priority="184" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A32,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1396" priority="185" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1412" priority="185" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A32,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1395" priority="186" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1411" priority="186" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A32,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1394" priority="187" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1410" priority="187" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A32,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1393" priority="188" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1409" priority="188" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A32,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1392" priority="189" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1408" priority="189" stopIfTrue="1">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="beginsWith" dxfId="1391" priority="176" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1407" priority="176" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1390" priority="177" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1406" priority="177" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1389" priority="178" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1405" priority="178" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1388" priority="179" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1404" priority="179" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1387" priority="180" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1403" priority="180" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1386" priority="181" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1402" priority="181" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1385" priority="182" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1401" priority="182" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1384" priority="190" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1400" priority="190" stopIfTrue="1">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="beginsWith" dxfId="1383" priority="168" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1399" priority="168" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A38,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1382" priority="169" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1398" priority="169" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A38,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1381" priority="170" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1397" priority="170" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A38,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1380" priority="171" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1396" priority="171" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A38,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1379" priority="172" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1395" priority="172" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A38,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1378" priority="173" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1394" priority="173" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A38,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1377" priority="174" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1393" priority="174" stopIfTrue="1">
       <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="beginsWith" dxfId="1376" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1392" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D38,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1375" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1391" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D38,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1374" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1390" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D38,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1373" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1389" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D38,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1372" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1388" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D38,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1371" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1387" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D38,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1370" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1386" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D38,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1369" priority="175" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1385" priority="175" stopIfTrue="1">
       <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A44">
-    <cfRule type="beginsWith" dxfId="1368" priority="153" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1384" priority="153" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A44,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1367" priority="154" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1383" priority="154" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A44,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1366" priority="155" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1382" priority="155" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A44,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1365" priority="156" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1381" priority="156" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A44,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1364" priority="157" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1380" priority="157" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A44,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1363" priority="158" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1379" priority="158" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A44,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1362" priority="159" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1378" priority="159" stopIfTrue="1">
       <formula>LEN(TRIM(A44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A49">
-    <cfRule type="beginsWith" dxfId="1361" priority="138" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1377" priority="138" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A49,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1360" priority="139" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1376" priority="139" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A49,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1359" priority="140" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1375" priority="140" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A49,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1358" priority="141" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1374" priority="141" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A49,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1357" priority="142" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1373" priority="142" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A49,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1356" priority="143" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1372" priority="143" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A49,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1355" priority="144" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1371" priority="144" stopIfTrue="1">
       <formula>LEN(TRIM(A49))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A55">
-    <cfRule type="beginsWith" dxfId="1354" priority="123" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1370" priority="123" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A55,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1353" priority="124" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1369" priority="124" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A55,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1352" priority="125" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1368" priority="125" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A55,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1351" priority="126" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1367" priority="126" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A55,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1350" priority="127" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1366" priority="127" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A55,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1349" priority="128" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1365" priority="128" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A55,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1348" priority="129" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1364" priority="129" stopIfTrue="1">
       <formula>LEN(TRIM(A55))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A48">
-    <cfRule type="beginsWith" dxfId="1347" priority="108" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1363" priority="108" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A48,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1346" priority="109" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1362" priority="109" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A48,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1345" priority="110" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1361" priority="110" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A48,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1344" priority="111" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1360" priority="111" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A48,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1343" priority="112" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1359" priority="112" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A48,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1342" priority="113" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1358" priority="113" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A48,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1341" priority="114" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1357" priority="114" stopIfTrue="1">
       <formula>LEN(TRIM(A48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A54">
-    <cfRule type="beginsWith" dxfId="1340" priority="93" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1356" priority="93" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A54,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1339" priority="94" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1355" priority="94" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A54,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1338" priority="95" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1354" priority="95" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A54,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1337" priority="96" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1353" priority="96" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A54,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1336" priority="97" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1352" priority="97" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A54,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1335" priority="98" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1351" priority="98" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A54,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1334" priority="99" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1350" priority="99" stopIfTrue="1">
       <formula>LEN(TRIM(A54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A43">
-    <cfRule type="beginsWith" dxfId="1333" priority="78" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1349" priority="78" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A43,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1332" priority="79" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1348" priority="79" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A43,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1331" priority="80" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1347" priority="80" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A43,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1330" priority="81" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1346" priority="81" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A43,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1329" priority="82" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1345" priority="82" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A43,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1328" priority="83" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1344" priority="83" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A43,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1327" priority="84" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1343" priority="84" stopIfTrue="1">
       <formula>LEN(TRIM(A43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93">
-    <cfRule type="beginsWith" dxfId="1326" priority="64" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1342" priority="64" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A93,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1325" priority="65" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1341" priority="65" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A93,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1324" priority="66" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1340" priority="66" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A93,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1323" priority="67" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1339" priority="67" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A93,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1322" priority="68" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1338" priority="68" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A93,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1321" priority="69" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1337" priority="69" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A93,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1320" priority="70" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1336" priority="70" stopIfTrue="1">
       <formula>LEN(TRIM(A93))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A94">
-    <cfRule type="beginsWith" dxfId="1319" priority="57" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1335" priority="57" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A94,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1318" priority="58" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1334" priority="58" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A94,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1317" priority="59" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1333" priority="59" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A94,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1316" priority="60" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1332" priority="60" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A94,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1315" priority="61" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1331" priority="61" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A94,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1314" priority="62" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1330" priority="62" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A94,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1313" priority="63" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1329" priority="63" stopIfTrue="1">
       <formula>LEN(TRIM(A94))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:E39">
-    <cfRule type="beginsWith" dxfId="1312" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1328" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E31,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1311" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1327" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E31,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1310" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1326" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E31,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1309" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1325" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E31,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1308" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1324" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E31,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1307" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1323" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E31,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1306" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1322" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E31,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1305" priority="56" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1321" priority="56" stopIfTrue="1">
       <formula>LEN(TRIM(E31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E41:E47">
-    <cfRule type="beginsWith" dxfId="1304" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1320" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E41,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1303" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1319" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E41,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1302" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1318" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E41,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1301" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1317" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E41,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1300" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1316" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E41,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1299" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1315" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E41,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1298" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1314" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E41,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1297" priority="48" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1313" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(E41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E55">
-    <cfRule type="beginsWith" dxfId="1296" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1312" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E48,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1295" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1311" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E48,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1294" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1310" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E48,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1293" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1309" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E48,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1292" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1308" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E48,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1291" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1307" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E48,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1290" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1306" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E48,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1289" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1305" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(E48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="beginsWith" dxfId="1288" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1304" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D40,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1287" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1303" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D40,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1286" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1302" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D40,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1285" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1301" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D40,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1284" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1300" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D40,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1283" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1299" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D40,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1282" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1298" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D40,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1281" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1297" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(D40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41:D47">
-    <cfRule type="beginsWith" dxfId="1280" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1296" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D41,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1279" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1295" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D41,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1278" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1294" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D41,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1277" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1293" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D41,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1276" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1292" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D41,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1275" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1291" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D41,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1274" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1290" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D41,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1273" priority="24" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1289" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D41))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D55">
-    <cfRule type="beginsWith" dxfId="1272" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1288" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D48,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1271" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1287" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D48,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1270" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1286" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D48,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1269" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1285" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D48,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1268" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1284" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D48,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1267" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1283" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D48,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1266" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1282" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D48,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1265" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1281" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108:D109">
-    <cfRule type="beginsWith" dxfId="23" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="39" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D108,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="22" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="38" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D108,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="21" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="37" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D108,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="20" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="36" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D108,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="19" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="35" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D108,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="18" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="34" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D108,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="17" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="33" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D108,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="32" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D108))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D30:E55 D70:E77 D11:E16 D98:E101 D79:E83 D57:E68 D85:E96 D111:E113 D115:E117 D18:E28 D119:E126 D103:E109">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D30:E55 D70:E77 D11:E16 D98:E101 D103:E109 D57:E68 D85:E96 D111:E113 D115:E117 D18:E28 D119:E126 D79:E83">
       <formula1>"Untested, Missing, Partial, Completed, Pre-Passed, Waived, Not Applicable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -32809,1507 +33027,1507 @@
     <mergeCell ref="A23:B23"/>
   </mergeCells>
   <conditionalFormatting sqref="A118:A242">
-    <cfRule type="beginsWith" dxfId="1264" priority="677" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="1280" priority="677" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A118,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1263" priority="678" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="1279" priority="678" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A118,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1262" priority="679" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="1278" priority="679" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A118,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1261" priority="680" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="1277" priority="680" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A118,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1260" priority="681" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="1276" priority="681" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A118,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1259" priority="682" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="1275" priority="682" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A118,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1258" priority="683" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1274" priority="683" stopIfTrue="1">
       <formula>LEN(TRIM(A118))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118:E242 D16:E18">
-    <cfRule type="beginsWith" dxfId="1257" priority="670" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1273" priority="670" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D16,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1256" priority="671" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1272" priority="671" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D16,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1255" priority="672" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1271" priority="672" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D16,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1254" priority="673" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1270" priority="673" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D16,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1253" priority="674" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1269" priority="674" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D16,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1252" priority="675" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1268" priority="675" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D16,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1251" priority="676" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1267" priority="676" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D16,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1250" priority="684" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1266" priority="684" stopIfTrue="1">
       <formula>LEN(TRIM(D16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="beginsWith" dxfId="1249" priority="638" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1265" priority="638" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E24,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1248" priority="639" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1264" priority="639" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E24,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1247" priority="640" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1263" priority="640" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E24,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1246" priority="641" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1262" priority="641" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E24,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1245" priority="642" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1261" priority="642" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E24,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1244" priority="643" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1260" priority="643" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E24,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1243" priority="644" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1259" priority="644" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E24,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1242" priority="645" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1258" priority="645" stopIfTrue="1">
       <formula>LEN(TRIM(E24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E47">
-    <cfRule type="beginsWith" dxfId="1241" priority="598" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1257" priority="598" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E47,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1240" priority="599" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1256" priority="599" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E47,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1239" priority="600" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1255" priority="600" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E47,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1238" priority="601" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1254" priority="601" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E47,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1237" priority="602" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1253" priority="602" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E47,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1236" priority="603" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1252" priority="603" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E47,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1235" priority="604" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1251" priority="604" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E47,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1234" priority="605" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1250" priority="605" stopIfTrue="1">
       <formula>LEN(TRIM(E47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:E80 D82:E82 E81">
-    <cfRule type="beginsWith" dxfId="1233" priority="526" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1249" priority="526" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D79,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1232" priority="527" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1248" priority="527" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D79,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1231" priority="528" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1247" priority="528" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D79,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1230" priority="529" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1246" priority="529" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D79,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1229" priority="530" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1245" priority="530" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D79,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1228" priority="531" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1244" priority="531" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D79,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1227" priority="532" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1243" priority="532" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D79,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1226" priority="533" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1242" priority="533" stopIfTrue="1">
       <formula>LEN(TRIM(D79))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D83:E86">
-    <cfRule type="beginsWith" dxfId="1225" priority="518" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1241" priority="518" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D83,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1224" priority="519" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1240" priority="519" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D83,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1223" priority="520" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1239" priority="520" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D83,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1222" priority="521" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1238" priority="521" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D83,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1221" priority="522" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1237" priority="522" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D83,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1220" priority="523" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1236" priority="523" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D83,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1219" priority="524" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1235" priority="524" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D83,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1218" priority="525" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1234" priority="525" stopIfTrue="1">
       <formula>LEN(TRIM(D83))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D87:E90">
-    <cfRule type="beginsWith" dxfId="1217" priority="510" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1233" priority="510" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D87,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1216" priority="511" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1232" priority="511" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D87,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1215" priority="512" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1231" priority="512" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D87,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1214" priority="513" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1230" priority="513" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D87,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1213" priority="514" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1229" priority="514" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D87,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1212" priority="515" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1228" priority="515" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D87,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1211" priority="516" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1227" priority="516" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D87,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1210" priority="517" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1226" priority="517" stopIfTrue="1">
       <formula>LEN(TRIM(D87))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D91:E91">
-    <cfRule type="beginsWith" dxfId="1209" priority="502" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1225" priority="502" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D91,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1208" priority="503" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1224" priority="503" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D91,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1207" priority="504" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1223" priority="504" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D91,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1206" priority="505" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1222" priority="505" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D91,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1205" priority="506" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1221" priority="506" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D91,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1204" priority="507" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1220" priority="507" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D91,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1203" priority="508" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1219" priority="508" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D91,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1202" priority="509" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1218" priority="509" stopIfTrue="1">
       <formula>LEN(TRIM(D91))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D92:E95">
-    <cfRule type="beginsWith" dxfId="1201" priority="494" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1217" priority="494" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D92,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1200" priority="495" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1216" priority="495" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D92,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1199" priority="496" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1215" priority="496" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D92,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1198" priority="497" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1214" priority="497" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D92,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1197" priority="498" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1213" priority="498" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D92,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1196" priority="499" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1212" priority="499" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D92,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1195" priority="500" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1211" priority="500" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D92,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1194" priority="501" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1210" priority="501" stopIfTrue="1">
       <formula>LEN(TRIM(D92))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11 E12">
-    <cfRule type="beginsWith" dxfId="1193" priority="457" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1209" priority="457" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1192" priority="458" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1208" priority="458" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1191" priority="459" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1207" priority="459" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1190" priority="460" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1206" priority="460" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1189" priority="461" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1205" priority="461" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1188" priority="462" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1204" priority="462" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1187" priority="463" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1203" priority="463" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1186" priority="464" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1202" priority="464" stopIfTrue="1">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E12">
-    <cfRule type="beginsWith" dxfId="1185" priority="441" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1201" priority="441" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1184" priority="442" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1200" priority="442" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1183" priority="443" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1199" priority="443" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1182" priority="444" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1198" priority="444" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1181" priority="445" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1197" priority="445" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1180" priority="446" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1196" priority="446" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1179" priority="447" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1195" priority="447" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1178" priority="448" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1194" priority="448" stopIfTrue="1">
       <formula>LEN(TRIM(E11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="beginsWith" dxfId="1177" priority="425" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1193" priority="425" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E60,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1176" priority="426" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1192" priority="426" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E60,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1175" priority="427" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1191" priority="427" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E60,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1174" priority="428" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1190" priority="428" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E60,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1173" priority="429" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1189" priority="429" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E60,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1172" priority="430" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1188" priority="430" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E60,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1171" priority="431" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1187" priority="431" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E60,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1170" priority="432" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1186" priority="432" stopIfTrue="1">
       <formula>LEN(TRIM(E60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E53">
-    <cfRule type="beginsWith" dxfId="1169" priority="417" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1185" priority="417" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E53,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1168" priority="418" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1184" priority="418" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E53,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1167" priority="419" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1183" priority="419" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E53,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1166" priority="420" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1182" priority="420" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E53,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1165" priority="421" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1181" priority="421" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E53,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1164" priority="422" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1180" priority="422" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E53,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1163" priority="423" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1179" priority="423" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E53,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1162" priority="424" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1178" priority="424" stopIfTrue="1">
       <formula>LEN(TRIM(E53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="beginsWith" dxfId="1161" priority="409" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1177" priority="409" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E13,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1160" priority="410" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1176" priority="410" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E13,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1159" priority="411" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1175" priority="411" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E13,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1158" priority="412" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1174" priority="412" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E13,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1157" priority="413" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1173" priority="413" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E13,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1156" priority="414" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1172" priority="414" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E13,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1155" priority="415" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1171" priority="415" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E13,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1154" priority="416" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1170" priority="416" stopIfTrue="1">
       <formula>LEN(TRIM(E13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:E14">
-    <cfRule type="beginsWith" dxfId="1153" priority="401" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1169" priority="401" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E13,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1152" priority="402" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1168" priority="402" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E13,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1151" priority="403" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1167" priority="403" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E13,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1150" priority="404" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1166" priority="404" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E13,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1149" priority="405" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1165" priority="405" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E13,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1148" priority="406" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1164" priority="406" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E13,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1147" priority="407" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1163" priority="407" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E13,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1146" priority="408" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1162" priority="408" stopIfTrue="1">
       <formula>LEN(TRIM(E13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E21">
-    <cfRule type="beginsWith" dxfId="1145" priority="393" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1161" priority="393" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E19,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1144" priority="394" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1160" priority="394" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E19,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1143" priority="395" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1159" priority="395" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E19,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1142" priority="396" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1158" priority="396" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E19,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1141" priority="397" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1157" priority="397" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E19,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1140" priority="398" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1156" priority="398" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E19,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1139" priority="399" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1155" priority="399" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E19,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1138" priority="400" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1154" priority="400" stopIfTrue="1">
       <formula>LEN(TRIM(E19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E21">
-    <cfRule type="beginsWith" dxfId="1137" priority="385" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1153" priority="385" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E19,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1136" priority="386" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1152" priority="386" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E19,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1135" priority="387" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1151" priority="387" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E19,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1134" priority="388" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1150" priority="388" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E19,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1133" priority="389" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1149" priority="389" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E19,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1132" priority="390" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1148" priority="390" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E19,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1131" priority="391" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1147" priority="391" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E19,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1130" priority="392" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1146" priority="392" stopIfTrue="1">
       <formula>LEN(TRIM(E19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="beginsWith" dxfId="1129" priority="377" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1145" priority="377" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E22,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1128" priority="378" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1144" priority="378" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E22,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1127" priority="379" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1143" priority="379" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E22,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1126" priority="380" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1142" priority="380" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E22,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1125" priority="381" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1141" priority="381" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E22,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1124" priority="382" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1140" priority="382" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E22,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1123" priority="383" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1139" priority="383" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E22,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1122" priority="384" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1138" priority="384" stopIfTrue="1">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22">
-    <cfRule type="beginsWith" dxfId="1121" priority="369" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1137" priority="369" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E22,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1120" priority="370" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1136" priority="370" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E22,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1119" priority="371" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1135" priority="371" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E22,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1118" priority="372" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1134" priority="372" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E22,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1117" priority="373" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1133" priority="373" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E22,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1116" priority="374" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1132" priority="374" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E22,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1115" priority="375" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1131" priority="375" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E22,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1114" priority="376" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1130" priority="376" stopIfTrue="1">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:E30">
-    <cfRule type="beginsWith" dxfId="1113" priority="361" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1129" priority="361" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E27,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1112" priority="362" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1128" priority="362" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E27,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1111" priority="363" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1127" priority="363" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E27,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1110" priority="364" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1126" priority="364" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E27,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1109" priority="365" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1125" priority="365" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E27,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1108" priority="366" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1124" priority="366" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E27,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1107" priority="367" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1123" priority="367" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E27,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1106" priority="368" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1122" priority="368" stopIfTrue="1">
       <formula>LEN(TRIM(E27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E38">
-    <cfRule type="beginsWith" dxfId="1105" priority="353" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1121" priority="353" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1104" priority="354" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1120" priority="354" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1103" priority="355" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1119" priority="355" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1102" priority="356" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1118" priority="356" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1101" priority="357" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1117" priority="357" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1100" priority="358" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1116" priority="358" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1099" priority="359" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1115" priority="359" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1098" priority="360" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1114" priority="360" stopIfTrue="1">
       <formula>LEN(TRIM(E32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="beginsWith" dxfId="1097" priority="345" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1113" priority="345" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E39,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1096" priority="346" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1112" priority="346" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E39,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1095" priority="347" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1111" priority="347" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E39,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1094" priority="348" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1110" priority="348" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E39,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1093" priority="349" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1109" priority="349" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E39,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1092" priority="350" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1108" priority="350" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E39,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1091" priority="351" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1107" priority="351" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E39,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1090" priority="352" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1106" priority="352" stopIfTrue="1">
       <formula>LEN(TRIM(E39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52">
-    <cfRule type="beginsWith" dxfId="1089" priority="337" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1105" priority="337" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E52,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1088" priority="338" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1104" priority="338" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E52,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1087" priority="339" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1103" priority="339" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E52,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1086" priority="340" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1102" priority="340" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E52,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1085" priority="341" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1101" priority="341" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E52,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1084" priority="342" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1100" priority="342" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E52,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1083" priority="343" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1099" priority="343" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E52,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1082" priority="344" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1098" priority="344" stopIfTrue="1">
       <formula>LEN(TRIM(E52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="beginsWith" dxfId="1081" priority="329" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1097" priority="329" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E42,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1080" priority="330" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1096" priority="330" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E42,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1079" priority="331" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1095" priority="331" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E42,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1078" priority="332" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1094" priority="332" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E42,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1077" priority="333" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1093" priority="333" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E42,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1076" priority="334" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1092" priority="334" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E42,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1075" priority="335" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1091" priority="335" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E42,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1074" priority="336" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1090" priority="336" stopIfTrue="1">
       <formula>LEN(TRIM(E42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:E41">
-    <cfRule type="beginsWith" dxfId="1073" priority="321" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1089" priority="321" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E40,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1072" priority="322" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1088" priority="322" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E40,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1071" priority="323" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1087" priority="323" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E40,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1070" priority="324" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1086" priority="324" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E40,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1069" priority="325" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1085" priority="325" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E40,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1068" priority="326" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1084" priority="326" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E40,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1067" priority="327" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1083" priority="327" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E40,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1066" priority="328" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1082" priority="328" stopIfTrue="1">
       <formula>LEN(TRIM(E40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:E46">
-    <cfRule type="beginsWith" dxfId="1065" priority="313" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1081" priority="313" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E43,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1064" priority="314" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1080" priority="314" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E43,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1063" priority="315" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1079" priority="315" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E43,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1062" priority="316" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1078" priority="316" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E43,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1061" priority="317" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1077" priority="317" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E43,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1060" priority="318" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1076" priority="318" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E43,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1059" priority="319" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1075" priority="319" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E43,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1058" priority="320" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1074" priority="320" stopIfTrue="1">
       <formula>LEN(TRIM(E43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:E51">
-    <cfRule type="beginsWith" dxfId="1057" priority="305" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1073" priority="305" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E48,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1056" priority="306" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1072" priority="306" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E48,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1055" priority="307" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1071" priority="307" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E48,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1054" priority="308" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1070" priority="308" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E48,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1053" priority="309" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1069" priority="309" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E48,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1052" priority="310" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1068" priority="310" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E48,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1051" priority="311" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1067" priority="311" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E48,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1050" priority="312" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1066" priority="312" stopIfTrue="1">
       <formula>LEN(TRIM(E48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E54:E56">
-    <cfRule type="beginsWith" dxfId="1049" priority="297" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1065" priority="297" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E54,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1048" priority="298" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1064" priority="298" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E54,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1047" priority="299" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1063" priority="299" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E54,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1046" priority="300" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1062" priority="300" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E54,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1045" priority="301" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1061" priority="301" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E54,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1044" priority="302" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1060" priority="302" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E54,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1043" priority="303" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1059" priority="303" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E54,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1042" priority="304" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1058" priority="304" stopIfTrue="1">
       <formula>LEN(TRIM(E54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E58">
-    <cfRule type="beginsWith" dxfId="1041" priority="289" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1057" priority="289" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E58,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1040" priority="290" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1056" priority="290" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E58,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1039" priority="291" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1055" priority="291" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E58,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1038" priority="292" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1054" priority="292" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E58,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1037" priority="293" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1053" priority="293" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E58,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1036" priority="294" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1052" priority="294" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E58,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1035" priority="295" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1051" priority="295" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E58,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1034" priority="296" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1050" priority="296" stopIfTrue="1">
       <formula>LEN(TRIM(E58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E61:E70">
-    <cfRule type="beginsWith" dxfId="1033" priority="273" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1049" priority="273" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E61,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1032" priority="274" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1048" priority="274" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E61,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1031" priority="275" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1047" priority="275" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E61,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1030" priority="276" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1046" priority="276" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E61,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1029" priority="277" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1045" priority="277" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E61,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1028" priority="278" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1044" priority="278" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E61,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1027" priority="279" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1043" priority="279" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E61,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1026" priority="280" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1042" priority="280" stopIfTrue="1">
       <formula>LEN(TRIM(E61))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E71:E77">
-    <cfRule type="beginsWith" dxfId="1025" priority="265" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1041" priority="265" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E71,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1024" priority="266" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1040" priority="266" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E71,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1023" priority="267" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1039" priority="267" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E71,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1022" priority="268" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1038" priority="268" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E71,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1021" priority="269" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1037" priority="269" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E71,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1020" priority="270" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1036" priority="270" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E71,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1019" priority="271" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1035" priority="271" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E71,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1018" priority="272" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1034" priority="272" stopIfTrue="1">
       <formula>LEN(TRIM(E71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="beginsWith" dxfId="1017" priority="257" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1033" priority="257" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E59,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1016" priority="258" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1032" priority="258" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E59,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1015" priority="259" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1031" priority="259" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E59,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1014" priority="260" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1030" priority="260" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E59,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1013" priority="261" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1029" priority="261" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E59,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1012" priority="262" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1028" priority="262" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E59,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1011" priority="263" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1027" priority="263" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E59,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1010" priority="264" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1026" priority="264" stopIfTrue="1">
       <formula>LEN(TRIM(E59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D25">
-    <cfRule type="beginsWith" dxfId="1009" priority="249" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1025" priority="249" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D24,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1008" priority="250" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1024" priority="250" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D24,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1007" priority="251" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1023" priority="251" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D24,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1006" priority="252" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1022" priority="252" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D24,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1005" priority="253" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1021" priority="253" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D24,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1004" priority="254" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1020" priority="254" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D24,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1003" priority="255" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1019" priority="255" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D24,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="1002" priority="256" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1018" priority="256" stopIfTrue="1">
       <formula>LEN(TRIM(D24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D39">
-    <cfRule type="beginsWith" dxfId="1001" priority="241" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1017" priority="241" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1000" priority="242" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1016" priority="242" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="999" priority="243" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1015" priority="243" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="998" priority="244" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1014" priority="244" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="997" priority="245" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1013" priority="245" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="996" priority="246" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1012" priority="246" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="995" priority="247" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1011" priority="247" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="994" priority="248" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1010" priority="248" stopIfTrue="1">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="beginsWith" dxfId="993" priority="193" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1009" priority="193" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D12,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="992" priority="194" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1008" priority="194" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D12,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="991" priority="195" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="1007" priority="195" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D12,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="990" priority="196" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="1006" priority="196" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D12,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="989" priority="197" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="1005" priority="197" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D12,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="988" priority="198" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="1004" priority="198" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D12,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="987" priority="199" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="1003" priority="199" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D12,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="986" priority="200" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="1002" priority="200" stopIfTrue="1">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="beginsWith" dxfId="985" priority="185" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="1001" priority="185" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D12,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="984" priority="186" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="1000" priority="186" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D12,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="983" priority="187" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="999" priority="187" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D12,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="982" priority="188" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="998" priority="188" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D12,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="981" priority="189" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="997" priority="189" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D12,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="980" priority="190" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="996" priority="190" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D12,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="979" priority="191" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="995" priority="191" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D12,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="978" priority="192" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="994" priority="192" stopIfTrue="1">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="beginsWith" dxfId="977" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="993" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D13,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="976" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="992" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D13,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="975" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="991" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D13,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="974" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="990" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D13,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="973" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="989" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D13,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="972" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="988" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D13,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="971" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="987" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D13,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="970" priority="184" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="986" priority="184" stopIfTrue="1">
       <formula>LEN(TRIM(D13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:D14">
-    <cfRule type="beginsWith" dxfId="969" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="985" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D13,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="968" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="984" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D13,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="967" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="983" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D13,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="966" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="982" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D13,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="965" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="981" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D13,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="964" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="980" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D13,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="963" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="979" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D13,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="962" priority="176" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="978" priority="176" stopIfTrue="1">
       <formula>LEN(TRIM(D13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D21">
-    <cfRule type="beginsWith" dxfId="961" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="977" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D19,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="960" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="976" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D19,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="959" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="975" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D19,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="958" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="974" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D19,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="957" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="973" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D19,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="956" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="972" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D19,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="955" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="971" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D19,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="954" priority="168" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="970" priority="168" stopIfTrue="1">
       <formula>LEN(TRIM(D19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D21">
-    <cfRule type="beginsWith" dxfId="953" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="969" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D19,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="952" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="968" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D19,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="951" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="967" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D19,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="950" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="966" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D19,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="949" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="965" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D19,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="948" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="964" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D19,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="947" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="963" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D19,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="946" priority="160" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="962" priority="160" stopIfTrue="1">
       <formula>LEN(TRIM(D19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="beginsWith" dxfId="945" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="961" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D22,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="944" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="960" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D22,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="943" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="959" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D22,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="942" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="958" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D22,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="941" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="957" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D22,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="940" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="956" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D22,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="939" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="955" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D22,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="938" priority="152" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="954" priority="152" stopIfTrue="1">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="beginsWith" dxfId="937" priority="137" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="953" priority="137" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D22,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="936" priority="138" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="952" priority="138" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D22,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="935" priority="139" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="951" priority="139" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D22,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="934" priority="140" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="950" priority="140" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D22,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="933" priority="141" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="949" priority="141" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D22,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="932" priority="142" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="948" priority="142" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D22,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="931" priority="143" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="947" priority="143" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D22,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="930" priority="144" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="946" priority="144" stopIfTrue="1">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D30">
-    <cfRule type="beginsWith" dxfId="929" priority="129" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="945" priority="129" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D27,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="928" priority="130" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="944" priority="130" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D27,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="927" priority="131" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="943" priority="131" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D27,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="926" priority="132" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="942" priority="132" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D27,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="925" priority="133" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="941" priority="133" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D27,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="924" priority="134" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="940" priority="134" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D27,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="923" priority="135" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="939" priority="135" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D27,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="922" priority="136" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="938" priority="136" stopIfTrue="1">
       <formula>LEN(TRIM(D27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47">
-    <cfRule type="beginsWith" dxfId="921" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="937" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D47,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="920" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="936" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D47,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="919" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="935" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D47,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="918" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="934" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D47,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="917" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="933" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D47,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="916" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="932" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D47,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="915" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="931" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D47,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="914" priority="128" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="930" priority="128" stopIfTrue="1">
       <formula>LEN(TRIM(D47))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="beginsWith" dxfId="913" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="929" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D53,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="912" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="928" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D53,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="911" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="927" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D53,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="910" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="926" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D53,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="909" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="925" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D53,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="908" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="924" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D53,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="907" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="923" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D53,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="906" priority="120" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="922" priority="120" stopIfTrue="1">
       <formula>LEN(TRIM(D53))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="beginsWith" dxfId="905" priority="105" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="921" priority="105" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D52,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="904" priority="106" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="920" priority="106" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D52,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="903" priority="107" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="919" priority="107" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D52,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="902" priority="108" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="918" priority="108" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D52,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="901" priority="109" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="917" priority="109" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D52,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="900" priority="110" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="916" priority="110" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D52,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="899" priority="111" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="915" priority="111" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D52,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="898" priority="112" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="914" priority="112" stopIfTrue="1">
       <formula>LEN(TRIM(D52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="beginsWith" dxfId="897" priority="97" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="913" priority="97" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D42,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="896" priority="98" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="912" priority="98" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D42,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="895" priority="99" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="911" priority="99" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D42,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="894" priority="100" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="910" priority="100" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D42,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="893" priority="101" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="909" priority="101" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D42,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="892" priority="102" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="908" priority="102" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D42,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="891" priority="103" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="907" priority="103" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D42,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="890" priority="104" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="906" priority="104" stopIfTrue="1">
       <formula>LEN(TRIM(D42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40:D41">
-    <cfRule type="beginsWith" dxfId="889" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="905" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D40,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="888" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="904" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D40,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="887" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="903" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D40,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="886" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="902" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D40,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="885" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="901" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D40,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="884" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="900" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D40,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="883" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="899" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D40,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="882" priority="96" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="898" priority="96" stopIfTrue="1">
       <formula>LEN(TRIM(D40))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D46">
-    <cfRule type="beginsWith" dxfId="881" priority="81" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="897" priority="81" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D43,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="880" priority="82" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="896" priority="82" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D43,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="879" priority="83" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="895" priority="83" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D43,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="878" priority="84" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="894" priority="84" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D43,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="877" priority="85" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="893" priority="85" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D43,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="876" priority="86" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="892" priority="86" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D43,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="875" priority="87" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="891" priority="87" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D43,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="874" priority="88" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="890" priority="88" stopIfTrue="1">
       <formula>LEN(TRIM(D43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:D51">
-    <cfRule type="beginsWith" dxfId="873" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="889" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D48,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="872" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="888" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D48,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="871" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="887" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D48,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="870" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="886" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D48,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="869" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="885" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D48,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="868" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="884" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D48,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="867" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="883" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D48,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="866" priority="80" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="882" priority="80" stopIfTrue="1">
       <formula>LEN(TRIM(D48))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54:D56">
-    <cfRule type="beginsWith" dxfId="865" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="881" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D54,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="864" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="880" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D54,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="863" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="879" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D54,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="862" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="878" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D54,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="861" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="877" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D54,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="860" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="876" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D54,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="859" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="875" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D54,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="858" priority="72" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="874" priority="72" stopIfTrue="1">
       <formula>LEN(TRIM(D54))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D70">
-    <cfRule type="beginsWith" dxfId="857" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="873" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D62,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="856" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="872" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D62,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="855" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="871" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D62,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="854" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="870" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D62,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="853" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="869" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D62,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="852" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="868" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D62,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="851" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="867" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D62,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="850" priority="56" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="866" priority="56" stopIfTrue="1">
       <formula>LEN(TRIM(D62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D71:D77">
-    <cfRule type="beginsWith" dxfId="849" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="865" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D71,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="848" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="864" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D71,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="847" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="863" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D71,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="846" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="862" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D71,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="845" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="861" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D71,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="844" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="860" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D71,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="843" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="859" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D71,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="842" priority="48" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="858" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(D71))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="beginsWith" dxfId="841" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="857" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D26,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="840" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="856" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D26,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="839" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="855" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D26,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="838" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="854" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D26,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="837" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="853" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D26,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="836" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="852" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D26,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="835" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="851" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D26,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="834" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="850" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(D26))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D58">
-    <cfRule type="beginsWith" dxfId="833" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="849" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D58,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="832" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="848" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D58,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="831" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="847" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D58,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="830" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="846" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D58,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="829" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="845" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D58,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="828" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="844" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D58,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="827" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="843" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D58,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="826" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="842" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(D58))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D59">
-    <cfRule type="beginsWith" dxfId="825" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="841" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D59,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="824" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="840" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D59,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="823" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="839" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D59,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="822" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="838" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D59,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="821" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="837" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D59,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="820" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="836" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D59,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="819" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="835" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D59,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="818" priority="24" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="834" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D59))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60:D61">
-    <cfRule type="beginsWith" dxfId="817" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="833" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D60,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="816" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="832" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D60,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="815" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="831" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D60,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="814" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="830" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D60,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="813" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="829" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D60,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="812" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="828" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D60,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="811" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="827" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D60,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="810" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="826" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D60))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D81">
-    <cfRule type="beginsWith" dxfId="809" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="825" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D81,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="808" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="824" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D81,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="807" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="823" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D81,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="806" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="822" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D81,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="805" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="821" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D81,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="804" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="820" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D81,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="803" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="819" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D81,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="802" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="818" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D81))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35357,71 +35575,71 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:E35 D37:E250 E36">
-    <cfRule type="beginsWith" dxfId="801" priority="40" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="817" priority="40" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D10,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="800" priority="41" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="816" priority="41" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D10,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="799" priority="42" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="815" priority="42" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D10,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="798" priority="43" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="814" priority="43" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D10,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="797" priority="44" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="813" priority="44" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D10,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="796" priority="45" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="812" priority="45" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D10,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="795" priority="46" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="811" priority="46" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D10,LEN("Untested"))="Untested"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A250">
-    <cfRule type="beginsWith" dxfId="794" priority="47" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="810" priority="47" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A10,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="793" priority="48" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="809" priority="48" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A10,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="792" priority="49" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="808" priority="49" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A10,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="791" priority="50" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="807" priority="50" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A10,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="790" priority="51" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="806" priority="51" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A10,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="789" priority="52" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="805" priority="52" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A10,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="788" priority="54" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="804" priority="54" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="beginsWith" dxfId="787" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="803" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D36,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="786" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="802" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D36,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="785" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="801" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D36,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="784" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="800" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D36,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="783" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="799" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D36,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="782" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="798" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D36,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="781" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="797" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D36,LEN("Untested"))="Untested"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36563,831 +36781,831 @@
     <mergeCell ref="A22:B22"/>
   </mergeCells>
   <conditionalFormatting sqref="A125:A249">
-    <cfRule type="beginsWith" dxfId="780" priority="504" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="796" priority="504" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A125,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="779" priority="505" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="795" priority="505" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A125,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="778" priority="506" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="794" priority="506" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A125,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="777" priority="507" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="793" priority="507" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A125,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="776" priority="508" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="792" priority="508" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A125,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="775" priority="509" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="791" priority="509" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A125,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="774" priority="510" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="790" priority="510" stopIfTrue="1">
       <formula>LEN(TRIM(A125))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D125:E249 D11:E15">
-    <cfRule type="beginsWith" dxfId="773" priority="497" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="789" priority="497" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="772" priority="498" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="788" priority="498" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="771" priority="499" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="787" priority="499" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="770" priority="500" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="786" priority="500" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="769" priority="501" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="785" priority="501" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="768" priority="502" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="784" priority="502" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="767" priority="503" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="783" priority="503" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="766" priority="511" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="782" priority="511" stopIfTrue="1">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:E19">
-    <cfRule type="beginsWith" dxfId="765" priority="305" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="781" priority="305" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E17,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="764" priority="306" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="780" priority="306" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E17,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="763" priority="307" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="779" priority="307" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E17,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="762" priority="308" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="778" priority="308" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E17,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="761" priority="309" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="777" priority="309" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E17,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="760" priority="310" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="776" priority="310" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E17,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="759" priority="311" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="775" priority="311" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E17,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="758" priority="312" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="774" priority="312" stopIfTrue="1">
       <formula>LEN(TRIM(E17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E21">
-    <cfRule type="beginsWith" dxfId="757" priority="297" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="773" priority="297" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E18,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="756" priority="298" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="772" priority="298" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E18,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="755" priority="299" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="771" priority="299" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E18,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="754" priority="300" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="770" priority="300" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E18,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="753" priority="301" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="769" priority="301" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E18,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="752" priority="302" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="768" priority="302" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E18,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="751" priority="303" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="767" priority="303" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E18,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="750" priority="304" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="766" priority="304" stopIfTrue="1">
       <formula>LEN(TRIM(E18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E28">
-    <cfRule type="beginsWith" dxfId="749" priority="217" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="765" priority="217" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E23,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="748" priority="218" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="764" priority="218" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E23,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="747" priority="219" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="763" priority="219" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E23,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="746" priority="220" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="762" priority="220" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E23,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="745" priority="221" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="761" priority="221" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E23,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="744" priority="222" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="760" priority="222" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E23,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="743" priority="223" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="759" priority="223" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E23,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="742" priority="224" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="758" priority="224" stopIfTrue="1">
       <formula>LEN(TRIM(E23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="beginsWith" dxfId="741" priority="209" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="757" priority="209" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E30,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="740" priority="210" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="756" priority="210" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E30,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="739" priority="211" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="755" priority="211" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E30,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="738" priority="212" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="754" priority="212" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E30,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="737" priority="213" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="753" priority="213" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E30,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="736" priority="214" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="752" priority="214" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E30,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="735" priority="215" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="751" priority="215" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E30,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="734" priority="216" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="750" priority="216" stopIfTrue="1">
       <formula>LEN(TRIM(E30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="beginsWith" dxfId="733" priority="201" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="749" priority="201" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E30,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="732" priority="202" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="748" priority="202" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E30,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="731" priority="203" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="747" priority="203" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E30,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="730" priority="204" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="746" priority="204" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E30,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="729" priority="205" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="745" priority="205" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E30,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="728" priority="206" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="744" priority="206" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E30,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="727" priority="207" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="743" priority="207" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E30,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="726" priority="208" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="742" priority="208" stopIfTrue="1">
       <formula>LEN(TRIM(E30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="beginsWith" dxfId="725" priority="193" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="741" priority="193" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E31,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="724" priority="194" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="740" priority="194" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E31,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="723" priority="195" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="739" priority="195" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E31,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="722" priority="196" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="738" priority="196" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E31,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="721" priority="197" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="737" priority="197" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E31,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="720" priority="198" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="736" priority="198" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E31,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="719" priority="199" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="735" priority="199" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E31,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="718" priority="200" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="734" priority="200" stopIfTrue="1">
       <formula>LEN(TRIM(E31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="beginsWith" dxfId="717" priority="185" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="733" priority="185" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E31,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="716" priority="186" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="732" priority="186" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E31,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="715" priority="187" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="731" priority="187" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E31,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="714" priority="188" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="730" priority="188" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E31,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="713" priority="189" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="729" priority="189" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E31,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="712" priority="190" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="728" priority="190" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E31,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="711" priority="191" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="727" priority="191" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E31,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="710" priority="192" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="726" priority="192" stopIfTrue="1">
       <formula>LEN(TRIM(E31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="beginsWith" dxfId="709" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="725" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="708" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="724" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="707" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="723" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="706" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="722" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="705" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="721" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="704" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="720" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="703" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="719" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="702" priority="184" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="718" priority="184" stopIfTrue="1">
       <formula>LEN(TRIM(E32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="beginsWith" dxfId="701" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="717" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="700" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="716" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="699" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="715" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="698" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="714" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="697" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="713" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="696" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="712" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="695" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="711" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="694" priority="176" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="710" priority="176" stopIfTrue="1">
       <formula>LEN(TRIM(E32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="beginsWith" dxfId="693" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="709" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E34,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="692" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="708" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E34,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="691" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="707" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E34,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="690" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="706" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E34,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="689" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="705" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E34,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="688" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="704" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E34,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="687" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="703" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E34,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="686" priority="168" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="702" priority="168" stopIfTrue="1">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="beginsWith" dxfId="685" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="701" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E34,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="684" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="700" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E34,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="683" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="699" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E34,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="682" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="698" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E34,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="681" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="697" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E34,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="680" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="696" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E34,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="679" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="695" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E34,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="678" priority="160" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="694" priority="160" stopIfTrue="1">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="beginsWith" dxfId="677" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="693" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E33,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="676" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="692" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E33,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="675" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="691" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E33,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="674" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="690" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E33,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="673" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="689" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E33,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="672" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="688" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E33,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="671" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="687" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E33,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="670" priority="152" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="686" priority="152" stopIfTrue="1">
       <formula>LEN(TRIM(E33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E36">
-    <cfRule type="beginsWith" dxfId="669" priority="137" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="685" priority="137" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E35,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="668" priority="138" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="684" priority="138" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E35,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="667" priority="139" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="683" priority="139" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E35,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="666" priority="140" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="682" priority="140" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E35,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="665" priority="141" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="681" priority="141" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E35,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="664" priority="142" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="680" priority="142" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E35,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="663" priority="143" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="679" priority="143" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E35,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="662" priority="144" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="678" priority="144" stopIfTrue="1">
       <formula>LEN(TRIM(E35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:E43">
-    <cfRule type="beginsWith" dxfId="661" priority="129" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="677" priority="129" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E38,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="660" priority="130" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="676" priority="130" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E38,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="659" priority="131" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="675" priority="131" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E38,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="658" priority="132" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="674" priority="132" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E38,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="657" priority="133" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="673" priority="133" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E38,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="656" priority="134" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="672" priority="134" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E38,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="655" priority="135" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="671" priority="135" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E38,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="654" priority="136" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="670" priority="136" stopIfTrue="1">
       <formula>LEN(TRIM(E38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:E55">
-    <cfRule type="beginsWith" dxfId="653" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="669" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E45,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="652" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="668" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E45,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="651" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="667" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E45,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="650" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="666" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E45,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="649" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="665" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E45,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="648" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="664" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E45,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="647" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="663" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E45,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="646" priority="128" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="662" priority="128" stopIfTrue="1">
       <formula>LEN(TRIM(E45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="beginsWith" dxfId="645" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="661" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D30,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="644" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="660" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D30,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="643" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="659" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D30,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="642" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="658" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D30,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="641" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="657" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D30,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="640" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="656" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D30,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="639" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="655" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D30,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="638" priority="120" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="654" priority="120" stopIfTrue="1">
       <formula>LEN(TRIM(D30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="beginsWith" dxfId="637" priority="105" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="653" priority="105" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D30,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="636" priority="106" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="652" priority="106" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D30,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="635" priority="107" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="651" priority="107" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D30,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="634" priority="108" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="650" priority="108" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D30,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="633" priority="109" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="649" priority="109" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D30,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="632" priority="110" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="648" priority="110" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D30,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="631" priority="111" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="647" priority="111" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D30,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="630" priority="112" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="646" priority="112" stopIfTrue="1">
       <formula>LEN(TRIM(D30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="beginsWith" dxfId="629" priority="97" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="645" priority="97" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D31,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="628" priority="98" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="644" priority="98" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D31,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="627" priority="99" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="643" priority="99" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D31,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="626" priority="100" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="642" priority="100" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D31,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="625" priority="101" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="641" priority="101" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D31,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="624" priority="102" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="640" priority="102" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D31,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="623" priority="103" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="639" priority="103" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D31,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="622" priority="104" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="638" priority="104" stopIfTrue="1">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="beginsWith" dxfId="621" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="637" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D31,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="620" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="636" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D31,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="619" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="635" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D31,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="618" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="634" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D31,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="617" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="633" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D31,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="616" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="632" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D31,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="615" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="631" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D31,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="614" priority="96" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="630" priority="96" stopIfTrue="1">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="beginsWith" dxfId="613" priority="81" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="629" priority="81" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="612" priority="82" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="628" priority="82" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="611" priority="83" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="627" priority="83" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="610" priority="84" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="626" priority="84" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="609" priority="85" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="625" priority="85" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="608" priority="86" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="624" priority="86" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="607" priority="87" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="623" priority="87" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="606" priority="88" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="622" priority="88" stopIfTrue="1">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="beginsWith" dxfId="605" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="621" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D32,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="604" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="620" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D32,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="603" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="619" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D32,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="602" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="618" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D32,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="601" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="617" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D32,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="600" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="616" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D32,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="599" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="615" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D32,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="598" priority="80" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="614" priority="80" stopIfTrue="1">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="beginsWith" dxfId="597" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="613" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D34,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="596" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="612" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D34,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="595" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="611" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D34,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="594" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="610" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D34,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="593" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="609" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D34,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="592" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="608" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D34,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="591" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="607" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D34,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="590" priority="72" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="606" priority="72" stopIfTrue="1">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="beginsWith" dxfId="589" priority="57" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="605" priority="57" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D34,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="588" priority="58" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="604" priority="58" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D34,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="587" priority="59" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="603" priority="59" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D34,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="586" priority="60" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="602" priority="60" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D34,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="585" priority="61" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="601" priority="61" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D34,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="584" priority="62" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="600" priority="62" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D34,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="583" priority="63" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="599" priority="63" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D34,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="582" priority="64" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="598" priority="64" stopIfTrue="1">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="beginsWith" dxfId="581" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="597" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D33,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="580" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="596" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D33,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="579" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="595" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D33,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="578" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="594" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D33,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="577" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="593" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D33,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="576" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="592" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D33,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="575" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="591" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D33,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="574" priority="56" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="590" priority="56" stopIfTrue="1">
       <formula>LEN(TRIM(D33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:D43">
-    <cfRule type="beginsWith" dxfId="573" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="589" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D38,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="572" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="588" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D38,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="571" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="587" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D38,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="570" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="586" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D38,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="569" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="585" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D38,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="568" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="584" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D38,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="567" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="583" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D38,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="566" priority="48" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="582" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:D55">
-    <cfRule type="beginsWith" dxfId="565" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="581" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D45,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="564" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="580" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D45,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="563" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="579" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D45,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="562" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="578" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D45,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="561" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="577" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D45,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="560" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="576" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D45,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="559" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="575" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D45,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="558" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="574" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(D45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D28">
-    <cfRule type="beginsWith" dxfId="557" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="573" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D23,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="556" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="572" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D23,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="555" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="571" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D23,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="554" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="570" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D23,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="553" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="569" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D23,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="552" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="568" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D23,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="551" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="567" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D23,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="550" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="566" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(D23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D19">
-    <cfRule type="beginsWith" dxfId="549" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="565" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D17,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="548" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="564" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D17,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="547" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="563" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D17,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="546" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="562" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D17,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="545" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="561" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D17,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="544" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="560" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D17,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="543" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="559" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D17,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="542" priority="24" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="558" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D21">
-    <cfRule type="beginsWith" dxfId="541" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="557" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D18,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="540" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="556" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D18,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="539" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="555" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D18,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="538" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="554" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D18,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="537" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="553" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D18,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="536" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="552" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D18,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="535" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="551" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D18,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="534" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="550" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D36">
-    <cfRule type="beginsWith" dxfId="533" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="549" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D35,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="532" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="548" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D35,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="531" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="547" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D35,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="530" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="546" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D35,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="529" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="545" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D35,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="528" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="544" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D35,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="527" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="543" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D35,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="526" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="542" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38598,701 +38816,701 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="A104:A228">
-    <cfRule type="beginsWith" dxfId="525" priority="456" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="541" priority="456" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A104,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="524" priority="457" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="540" priority="457" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A104,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="523" priority="458" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="539" priority="458" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A104,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="522" priority="459" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="538" priority="459" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A104,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="521" priority="460" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="537" priority="460" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A104,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="520" priority="461" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="536" priority="461" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A104,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="519" priority="462" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="535" priority="462" stopIfTrue="1">
       <formula>LEN(TRIM(A104))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D104:E228 E12:E18 E33 E51">
-    <cfRule type="beginsWith" dxfId="518" priority="449" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="534" priority="449" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D12,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="517" priority="450" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="533" priority="450" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D12,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="516" priority="451" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="532" priority="451" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D12,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="515" priority="452" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="531" priority="452" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D12,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="514" priority="453" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="530" priority="453" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D12,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="513" priority="454" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="529" priority="454" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D12,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="512" priority="455" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="528" priority="455" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D12,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="511" priority="463" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="527" priority="463" stopIfTrue="1">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E19">
-    <cfRule type="beginsWith" dxfId="510" priority="345" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="526" priority="345" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="509" priority="346" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="525" priority="346" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="508" priority="347" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="524" priority="347" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="507" priority="348" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="523" priority="348" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="506" priority="349" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="522" priority="349" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="505" priority="350" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="521" priority="350" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="504" priority="351" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="520" priority="351" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="503" priority="352" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="519" priority="352" stopIfTrue="1">
       <formula>LEN(TRIM(E11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E22">
-    <cfRule type="beginsWith" dxfId="502" priority="329" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="518" priority="329" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E19,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="501" priority="330" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="517" priority="330" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E19,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="500" priority="331" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="516" priority="331" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E19,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="499" priority="332" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="515" priority="332" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E19,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="498" priority="333" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="514" priority="333" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E19,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="497" priority="334" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="513" priority="334" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E19,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="496" priority="335" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="512" priority="335" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E19,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="495" priority="336" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="511" priority="336" stopIfTrue="1">
       <formula>LEN(TRIM(E19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:E32">
-    <cfRule type="beginsWith" dxfId="494" priority="201" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="510" priority="201" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E30,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="493" priority="202" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="509" priority="202" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E30,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="492" priority="203" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="508" priority="203" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E30,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="491" priority="204" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="507" priority="204" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E30,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="490" priority="205" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="506" priority="205" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E30,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="489" priority="206" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="505" priority="206" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E30,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="488" priority="207" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="504" priority="207" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E30,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="487" priority="208" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="503" priority="208" stopIfTrue="1">
       <formula>LEN(TRIM(E30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="beginsWith" dxfId="486" priority="193" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="502" priority="193" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E34,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="485" priority="194" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="501" priority="194" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E34,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="484" priority="195" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="500" priority="195" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E34,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="483" priority="196" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="499" priority="196" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E34,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="482" priority="197" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="498" priority="197" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E34,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="481" priority="198" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="497" priority="198" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E34,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="480" priority="199" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="496" priority="199" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E34,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="479" priority="200" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="495" priority="200" stopIfTrue="1">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
-    <cfRule type="beginsWith" dxfId="478" priority="185" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="494" priority="185" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E20,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="477" priority="186" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="493" priority="186" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E20,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="476" priority="187" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="492" priority="187" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E20,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="475" priority="188" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="491" priority="188" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E20,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="474" priority="189" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="490" priority="189" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E20,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="473" priority="190" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="489" priority="190" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E20,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="472" priority="191" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="488" priority="191" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E20,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="471" priority="192" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="487" priority="192" stopIfTrue="1">
       <formula>LEN(TRIM(E20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E21">
-    <cfRule type="beginsWith" dxfId="470" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="486" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E21,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="469" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="485" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E21,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="468" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="484" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E21,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="467" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="483" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E21,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="466" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="482" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E21,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="465" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="481" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E21,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="464" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="480" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E21,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="463" priority="184" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="479" priority="184" stopIfTrue="1">
       <formula>LEN(TRIM(E21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E28">
-    <cfRule type="beginsWith" dxfId="462" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="478" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E23,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="461" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="477" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E23,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="460" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="476" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E23,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="459" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="475" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E23,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="458" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="474" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E23,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="457" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="473" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E23,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="456" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="472" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E23,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="455" priority="176" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="471" priority="176" stopIfTrue="1">
       <formula>LEN(TRIM(E23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:E40">
-    <cfRule type="beginsWith" dxfId="454" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="470" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E35,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="453" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="469" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E35,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="452" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="468" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E35,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="451" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="467" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E35,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="450" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="466" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E35,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="449" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="465" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E35,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="448" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="464" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E35,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="447" priority="168" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="463" priority="168" stopIfTrue="1">
       <formula>LEN(TRIM(E35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42:E45">
-    <cfRule type="beginsWith" dxfId="446" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="462" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E42,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="445" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="461" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E42,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="444" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="460" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E42,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="443" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="459" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E42,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="442" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="458" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E42,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="441" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="457" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E42,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="440" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="456" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E42,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="439" priority="160" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="455" priority="160" stopIfTrue="1">
       <formula>LEN(TRIM(E42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E49">
-    <cfRule type="beginsWith" dxfId="438" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="454" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E46,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="437" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="453" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E46,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="436" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="452" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E46,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="435" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="451" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E46,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="434" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="450" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E46,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="433" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="449" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E46,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="432" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="448" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E46,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="431" priority="152" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="447" priority="152" stopIfTrue="1">
       <formula>LEN(TRIM(E46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E52:E59">
-    <cfRule type="beginsWith" dxfId="430" priority="137" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="446" priority="137" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E52,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="429" priority="138" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="445" priority="138" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E52,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="428" priority="139" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="444" priority="139" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E52,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="427" priority="140" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="443" priority="140" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E52,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="426" priority="141" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="442" priority="141" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E52,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="425" priority="142" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="441" priority="142" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E52,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="424" priority="143" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="440" priority="143" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E52,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="423" priority="144" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="439" priority="144" stopIfTrue="1">
       <formula>LEN(TRIM(E52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D18">
-    <cfRule type="beginsWith" dxfId="422" priority="129" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="438" priority="129" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D12,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="421" priority="130" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="437" priority="130" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D12,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="420" priority="131" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="436" priority="131" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D12,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="419" priority="132" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="435" priority="132" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D12,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="418" priority="133" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="434" priority="133" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D12,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="417" priority="134" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="433" priority="134" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D12,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="416" priority="135" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="432" priority="135" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D12,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="415" priority="136" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="431" priority="136" stopIfTrue="1">
       <formula>LEN(TRIM(D12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D19">
-    <cfRule type="beginsWith" dxfId="414" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="430" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="413" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="429" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="412" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="428" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="411" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="427" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="410" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="426" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="409" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="425" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="408" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="424" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="407" priority="128" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="423" priority="128" stopIfTrue="1">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19 D22">
-    <cfRule type="beginsWith" dxfId="406" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="422" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D19,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="405" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="421" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D19,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="404" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="420" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D19,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="403" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="419" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D19,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="402" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="418" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D19,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="401" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="417" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D19,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="400" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="416" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D19,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="399" priority="120" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="415" priority="120" stopIfTrue="1">
       <formula>LEN(TRIM(D19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D28">
-    <cfRule type="beginsWith" dxfId="398" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="414" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D23,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="397" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="413" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D23,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="396" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="412" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D23,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="395" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="411" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D23,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="394" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="410" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D23,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="393" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="409" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D23,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="392" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="408" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D23,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="391" priority="96" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="407" priority="96" stopIfTrue="1">
       <formula>LEN(TRIM(D23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30:D32">
-    <cfRule type="beginsWith" dxfId="390" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="406" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D30,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="389" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="405" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D30,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="388" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="404" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D30,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="387" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="403" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D30,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="386" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="402" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D30,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="385" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="401" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D30,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="384" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="400" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D30,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="383" priority="80" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="399" priority="80" stopIfTrue="1">
       <formula>LEN(TRIM(D30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="beginsWith" dxfId="382" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="398" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D34,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="381" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="397" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D34,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="380" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="396" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D34,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="379" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="395" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D34,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="378" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="394" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D34,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="377" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="393" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D34,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="376" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="392" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D34,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="375" priority="72" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="391" priority="72" stopIfTrue="1">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:D40">
-    <cfRule type="beginsWith" dxfId="374" priority="57" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="390" priority="57" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D35,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="373" priority="58" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="389" priority="58" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D35,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="372" priority="59" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="388" priority="59" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D35,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="371" priority="60" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="387" priority="60" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D35,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="370" priority="61" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="386" priority="61" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D35,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="369" priority="62" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="385" priority="62" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D35,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="368" priority="63" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="384" priority="63" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D35,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="367" priority="64" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="383" priority="64" stopIfTrue="1">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:D45">
-    <cfRule type="beginsWith" dxfId="366" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="382" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D42,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="365" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="381" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D42,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="364" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="380" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D42,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="363" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="379" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D42,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="362" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="378" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D42,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="361" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="377" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D42,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="360" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="376" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D42,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="359" priority="56" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="375" priority="56" stopIfTrue="1">
       <formula>LEN(TRIM(D42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D49">
-    <cfRule type="beginsWith" dxfId="358" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="374" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D46,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="357" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="373" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D46,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="356" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="372" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D46,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="355" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="371" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D46,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="354" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="370" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D46,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="353" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="369" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D46,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="352" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="368" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D46,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="351" priority="48" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="367" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(D46))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="beginsWith" dxfId="350" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="366" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D51,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="349" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="365" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D51,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="348" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="364" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D51,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="347" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="363" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D51,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="346" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="362" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D51,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="345" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="361" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D51,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="344" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="360" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D51,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="343" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="359" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(D51))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52:D59">
-    <cfRule type="beginsWith" dxfId="342" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="358" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D52,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="341" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="357" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D52,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="340" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="356" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D52,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="339" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="355" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D52,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="338" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="354" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D52,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="337" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="353" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D52,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="336" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="352" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D52,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="335" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="351" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(D52))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="beginsWith" dxfId="334" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="350" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D33,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="333" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="349" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D33,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="332" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="348" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D33,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="331" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="347" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D33,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="330" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="346" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D33,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="329" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="345" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D33,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="328" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="344" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D33,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="327" priority="24" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="343" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D33))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="beginsWith" dxfId="326" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="342" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D20,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="325" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="341" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D20,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="324" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="340" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D20,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="323" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="339" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D20,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="322" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="338" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D20,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="321" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="337" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D20,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="320" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="336" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D20,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="319" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="335" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D20))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="beginsWith" dxfId="318" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="334" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D21,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="317" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="333" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D21,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="316" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="332" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D21,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="315" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="331" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D21,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="314" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="330" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D21,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="313" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="329" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D21,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="312" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="328" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D21,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="311" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="327" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40258,727 +40476,727 @@
     <mergeCell ref="A10:B10"/>
   </mergeCells>
   <conditionalFormatting sqref="D10:E10 D46:E241 E17 D41:E41 E19:E21 D34:E34 E27:E33">
-    <cfRule type="beginsWith" dxfId="310" priority="472" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="326" priority="472" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D10,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="309" priority="473" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="325" priority="473" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D10,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="308" priority="474" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="324" priority="474" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D10,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="307" priority="475" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="323" priority="475" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D10,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="306" priority="476" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="322" priority="476" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D10,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="305" priority="477" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="321" priority="477" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D10,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="304" priority="478" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="320" priority="478" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D10,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="303" priority="486" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="319" priority="486" stopIfTrue="1">
       <formula>LEN(TRIM(D10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:A241">
-    <cfRule type="beginsWith" dxfId="302" priority="479" stopIfTrue="1" operator="beginsWith" text="Innovative">
+    <cfRule type="beginsWith" dxfId="318" priority="479" stopIfTrue="1" operator="beginsWith" text="Innovative">
       <formula>LEFT(A10,LEN("Innovative"))="Innovative"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="301" priority="480" stopIfTrue="1" operator="beginsWith" text="Professional">
+    <cfRule type="beginsWith" dxfId="317" priority="480" stopIfTrue="1" operator="beginsWith" text="Professional">
       <formula>LEFT(A10,LEN("Professional"))="Professional"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="300" priority="481" stopIfTrue="1" operator="beginsWith" text="Advanced">
+    <cfRule type="beginsWith" dxfId="316" priority="481" stopIfTrue="1" operator="beginsWith" text="Advanced">
       <formula>LEFT(A10,LEN("Advanced"))="Advanced"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="299" priority="482" stopIfTrue="1" operator="beginsWith" text="Intermediate">
+    <cfRule type="beginsWith" dxfId="315" priority="482" stopIfTrue="1" operator="beginsWith" text="Intermediate">
       <formula>LEFT(A10,LEN("Intermediate"))="Intermediate"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="298" priority="483" stopIfTrue="1" operator="beginsWith" text="Basic">
+    <cfRule type="beginsWith" dxfId="314" priority="483" stopIfTrue="1" operator="beginsWith" text="Basic">
       <formula>LEFT(A10,LEN("Basic"))="Basic"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="297" priority="484" stopIfTrue="1" operator="beginsWith" text="Required">
+    <cfRule type="beginsWith" dxfId="313" priority="484" stopIfTrue="1" operator="beginsWith" text="Required">
       <formula>LEFT(A10,LEN("Required"))="Required"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="296" priority="485" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="312" priority="485" stopIfTrue="1">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E14">
-    <cfRule type="beginsWith" dxfId="295" priority="320" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="311" priority="320" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="294" priority="321" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="310" priority="321" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="293" priority="322" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="309" priority="322" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="292" priority="323" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="308" priority="323" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="291" priority="324" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="307" priority="324" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="290" priority="325" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="306" priority="325" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="289" priority="326" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="305" priority="326" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="288" priority="327" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="304" priority="327" stopIfTrue="1">
       <formula>LEN(TRIM(E11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="beginsWith" dxfId="287" priority="288" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="303" priority="288" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E35,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="286" priority="289" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="302" priority="289" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E35,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="285" priority="290" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="301" priority="290" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E35,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="284" priority="291" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="300" priority="291" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E35,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="283" priority="292" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="299" priority="292" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E35,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="282" priority="293" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="298" priority="293" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E35,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="281" priority="294" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="297" priority="294" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E35,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="280" priority="295" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="296" priority="295" stopIfTrue="1">
       <formula>LEN(TRIM(E35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45:E45">
-    <cfRule type="beginsWith" dxfId="279" priority="232" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="295" priority="232" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D45,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="278" priority="233" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="294" priority="233" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D45,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="277" priority="234" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="293" priority="234" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D45,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="276" priority="235" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="292" priority="235" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D45,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="275" priority="236" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="291" priority="236" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D45,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="274" priority="237" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="290" priority="237" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D45,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="273" priority="238" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="289" priority="238" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D45,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="272" priority="239" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="288" priority="239" stopIfTrue="1">
       <formula>LEN(TRIM(D45))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:E22">
-    <cfRule type="beginsWith" dxfId="271" priority="217" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="287" priority="217" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D22,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="270" priority="218" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="286" priority="218" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D22,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="269" priority="219" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="285" priority="219" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D22,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="268" priority="220" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="284" priority="220" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D22,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="267" priority="221" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="283" priority="221" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D22,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="266" priority="222" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="282" priority="222" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D22,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="265" priority="223" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="281" priority="223" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D22,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="264" priority="231" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="280" priority="231" stopIfTrue="1">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E26">
-    <cfRule type="beginsWith" dxfId="263" priority="209" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="279" priority="209" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E24,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="262" priority="210" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="278" priority="210" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E24,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="261" priority="211" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="277" priority="211" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E24,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="260" priority="212" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="276" priority="212" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E24,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="259" priority="213" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="275" priority="213" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E24,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="258" priority="214" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="274" priority="214" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E24,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="257" priority="215" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="273" priority="215" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E24,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="256" priority="216" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="272" priority="216" stopIfTrue="1">
       <formula>LEN(TRIM(E24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="beginsWith" dxfId="255" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="271" priority="177" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E18,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="254" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="270" priority="178" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E18,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="253" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="269" priority="179" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E18,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="252" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="268" priority="180" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E18,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="251" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="267" priority="181" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E18,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="250" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="266" priority="182" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E18,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="249" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="265" priority="183" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E18,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="248" priority="184" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="264" priority="184" stopIfTrue="1">
       <formula>LEN(TRIM(E18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="beginsWith" dxfId="247" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="263" priority="169" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E15,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="246" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="262" priority="170" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E15,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="245" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="261" priority="171" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E15,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="244" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="260" priority="172" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E15,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="243" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="259" priority="173" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E15,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="242" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="258" priority="174" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E15,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="241" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="257" priority="175" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E15,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="240" priority="176" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="256" priority="176" stopIfTrue="1">
       <formula>LEN(TRIM(E15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="beginsWith" dxfId="239" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="255" priority="161" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E16,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="238" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="254" priority="162" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E16,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="237" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="253" priority="163" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E16,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="236" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="252" priority="164" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E16,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="235" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="251" priority="165" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E16,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="234" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="250" priority="166" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E16,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="233" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="249" priority="167" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E16,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="232" priority="168" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="248" priority="168" stopIfTrue="1">
       <formula>LEN(TRIM(E16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:E26">
-    <cfRule type="beginsWith" dxfId="231" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="247" priority="153" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E23,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="230" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="246" priority="154" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E23,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="229" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="245" priority="155" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E23,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="228" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="244" priority="156" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E23,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="227" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="243" priority="157" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E23,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="226" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="242" priority="158" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E23,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="225" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="241" priority="159" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E23,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="224" priority="160" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="240" priority="160" stopIfTrue="1">
       <formula>LEN(TRIM(E23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="beginsWith" dxfId="223" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="239" priority="145" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E42,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="222" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="238" priority="146" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E42,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="221" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="237" priority="147" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E42,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="220" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="236" priority="148" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E42,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="219" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="235" priority="149" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E42,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="218" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="234" priority="150" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E42,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="217" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="233" priority="151" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E42,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="216" priority="152" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="232" priority="152" stopIfTrue="1">
       <formula>LEN(TRIM(E42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43">
-    <cfRule type="beginsWith" dxfId="215" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="231" priority="121" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E43,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="214" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="230" priority="122" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E43,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="213" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="229" priority="123" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E43,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="212" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="228" priority="124" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E43,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="211" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="227" priority="125" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E43,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="210" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="226" priority="126" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E43,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="209" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="225" priority="127" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E43,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="208" priority="128" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="224" priority="128" stopIfTrue="1">
       <formula>LEN(TRIM(E43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="beginsWith" dxfId="207" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="223" priority="113" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E44,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="206" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="222" priority="114" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E44,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="205" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="221" priority="115" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E44,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="204" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="220" priority="116" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E44,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="203" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="219" priority="117" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E44,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="202" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="218" priority="118" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E44,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="201" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="217" priority="119" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E44,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="200" priority="120" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="216" priority="120" stopIfTrue="1">
       <formula>LEN(TRIM(E44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36:E40">
-    <cfRule type="beginsWith" dxfId="199" priority="105" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="215" priority="105" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(E36,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="198" priority="106" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="214" priority="106" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(E36,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="197" priority="107" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="213" priority="107" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(E36,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="196" priority="108" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="212" priority="108" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(E36,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="195" priority="109" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="211" priority="109" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(E36,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="194" priority="110" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="210" priority="110" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(E36,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="193" priority="111" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="209" priority="111" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(E36,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="192" priority="112" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="208" priority="112" stopIfTrue="1">
       <formula>LEN(TRIM(E36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="beginsWith" dxfId="191" priority="97" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="207" priority="97" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D42,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="190" priority="98" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="206" priority="98" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D42,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="189" priority="99" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="205" priority="99" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D42,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="188" priority="100" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="204" priority="100" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D42,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="187" priority="101" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="203" priority="101" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D42,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="186" priority="102" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="202" priority="102" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D42,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="185" priority="103" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="201" priority="103" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D42,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="184" priority="104" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="200" priority="104" stopIfTrue="1">
       <formula>LEN(TRIM(D42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="beginsWith" dxfId="183" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="199" priority="89" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D43,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="182" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="198" priority="90" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D43,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="181" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="197" priority="91" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D43,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="180" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="196" priority="92" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D43,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="179" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="195" priority="93" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D43,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="178" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="194" priority="94" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D43,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="177" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="193" priority="95" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D43,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="176" priority="96" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="192" priority="96" stopIfTrue="1">
       <formula>LEN(TRIM(D43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="beginsWith" dxfId="175" priority="81" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="191" priority="81" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D44,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="174" priority="82" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="190" priority="82" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D44,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="173" priority="83" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="189" priority="83" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D44,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="172" priority="84" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="188" priority="84" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D44,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="171" priority="85" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="187" priority="85" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D44,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="170" priority="86" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="186" priority="86" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D44,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="169" priority="87" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="185" priority="87" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D44,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="168" priority="88" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="184" priority="88" stopIfTrue="1">
       <formula>LEN(TRIM(D44))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="beginsWith" dxfId="167" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="183" priority="73" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D35,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="166" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="182" priority="74" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D35,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="165" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="181" priority="75" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D35,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="164" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="180" priority="76" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D35,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="163" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="179" priority="77" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D35,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="162" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="178" priority="78" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D35,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="161" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="177" priority="79" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D35,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="160" priority="80" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="176" priority="80" stopIfTrue="1">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36:D40">
-    <cfRule type="beginsWith" dxfId="159" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="175" priority="65" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D36,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="158" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="174" priority="66" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D36,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="157" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="173" priority="67" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D36,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="156" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="172" priority="68" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D36,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="155" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="171" priority="69" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D36,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="154" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="170" priority="70" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D36,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="153" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="169" priority="71" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D36,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="152" priority="72" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="168" priority="72" stopIfTrue="1">
       <formula>LEN(TRIM(D36))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:D33">
-    <cfRule type="beginsWith" dxfId="151" priority="57" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="167" priority="57" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D27,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="150" priority="58" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="166" priority="58" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D27,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="149" priority="59" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="165" priority="59" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D27,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="148" priority="60" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="164" priority="60" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D27,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="147" priority="61" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="163" priority="61" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D27,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="146" priority="62" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="162" priority="62" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D27,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="145" priority="63" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="161" priority="63" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D27,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="144" priority="64" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="160" priority="64" stopIfTrue="1">
       <formula>LEN(TRIM(D27))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D26">
-    <cfRule type="beginsWith" dxfId="143" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="159" priority="49" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D24,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="142" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="158" priority="50" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D24,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="141" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="157" priority="51" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D24,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="140" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="156" priority="52" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D24,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="139" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="155" priority="53" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D24,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="138" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="154" priority="54" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D24,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="137" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="153" priority="55" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D24,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="136" priority="56" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="152" priority="56" stopIfTrue="1">
       <formula>LEN(TRIM(D24))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:D26">
-    <cfRule type="beginsWith" dxfId="135" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="151" priority="41" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D23,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="134" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="150" priority="42" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D23,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="133" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="149" priority="43" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D23,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="132" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="148" priority="44" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D23,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="131" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="147" priority="45" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D23,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="130" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="146" priority="46" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D23,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="129" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="145" priority="47" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D23,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="128" priority="48" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="144" priority="48" stopIfTrue="1">
       <formula>LEN(TRIM(D23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17 D19:D21">
-    <cfRule type="beginsWith" dxfId="127" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="143" priority="33" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D17,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="126" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="142" priority="34" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D17,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="125" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="141" priority="35" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D17,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="124" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="140" priority="36" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D17,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="123" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="139" priority="37" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D17,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="122" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="138" priority="38" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D17,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="121" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="137" priority="39" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D17,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="120" priority="40" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="136" priority="40" stopIfTrue="1">
       <formula>LEN(TRIM(D17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D14">
-    <cfRule type="beginsWith" dxfId="119" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="135" priority="25" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D11,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="118" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="134" priority="26" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D11,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="117" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="133" priority="27" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D11,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="116" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="132" priority="28" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D11,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="115" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="131" priority="29" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D11,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="114" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="130" priority="30" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D11,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="113" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="129" priority="31" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D11,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="112" priority="32" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="128" priority="32" stopIfTrue="1">
       <formula>LEN(TRIM(D11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="beginsWith" dxfId="111" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="127" priority="17" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D18,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="110" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="126" priority="18" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D18,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="109" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="125" priority="19" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D18,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="108" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="124" priority="20" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D18,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="107" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="123" priority="21" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D18,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="106" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="122" priority="22" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D18,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="105" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="121" priority="23" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D18,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="104" priority="24" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="120" priority="24" stopIfTrue="1">
       <formula>LEN(TRIM(D18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="beginsWith" dxfId="103" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="119" priority="9" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D15,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="102" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="118" priority="10" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D15,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="101" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="117" priority="11" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D15,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="100" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="116" priority="12" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D15,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="99" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="115" priority="13" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D15,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="98" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="114" priority="14" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D15,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="97" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="113" priority="15" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D15,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="96" priority="16" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="112" priority="16" stopIfTrue="1">
       <formula>LEN(TRIM(D15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="beginsWith" dxfId="95" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
+    <cfRule type="beginsWith" dxfId="111" priority="1" stopIfTrue="1" operator="beginsWith" text="Not Applicable">
       <formula>LEFT(D16,LEN("Not Applicable"))="Not Applicable"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="94" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
+    <cfRule type="beginsWith" dxfId="110" priority="2" stopIfTrue="1" operator="beginsWith" text="Waived">
       <formula>LEFT(D16,LEN("Waived"))="Waived"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="93" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
+    <cfRule type="beginsWith" dxfId="109" priority="3" stopIfTrue="1" operator="beginsWith" text="Pre-Passed">
       <formula>LEFT(D16,LEN("Pre-Passed"))="Pre-Passed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="92" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
+    <cfRule type="beginsWith" dxfId="108" priority="4" stopIfTrue="1" operator="beginsWith" text="Completed">
       <formula>LEFT(D16,LEN("Completed"))="Completed"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="91" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
+    <cfRule type="beginsWith" dxfId="107" priority="5" stopIfTrue="1" operator="beginsWith" text="Partial">
       <formula>LEFT(D16,LEN("Partial"))="Partial"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="90" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
+    <cfRule type="beginsWith" dxfId="106" priority="6" stopIfTrue="1" operator="beginsWith" text="Missing">
       <formula>LEFT(D16,LEN("Missing"))="Missing"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="89" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
+    <cfRule type="beginsWith" dxfId="105" priority="7" stopIfTrue="1" operator="beginsWith" text="Untested">
       <formula>LEFT(D16,LEN("Untested"))="Untested"</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="88" priority="8" stopIfTrue="1">
+    <cfRule type="notContainsBlanks" dxfId="104" priority="8" stopIfTrue="1">
       <formula>LEN(TRIM(D16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41002,7 +41220,7 @@
   <dimension ref="A1:L60"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C3" sqref="C3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -41061,17 +41279,17 @@
       <c r="B3" s="74"/>
       <c r="C3" s="196">
         <f>MAX(0,MIN(1,IF((A6+C6) &lt;= 0.95, ROUND(A6+C6,2), FLOOR((0.95+(A6+C6-0.95)/5),0.01))))</f>
-        <v>0.95000000000000007</v>
+        <v>0.82</v>
       </c>
       <c r="D3" s="197"/>
       <c r="E3" s="196">
         <f>MAX(0,MIN(1,IF((A6+E6) &lt;= 0.95, ROUND(A6+E6,2), FLOOR((0.95+(A6+E6-0.95)/5),0.01))))</f>
-        <v>0.95000000000000007</v>
+        <v>0.89</v>
       </c>
       <c r="F3" s="197"/>
       <c r="G3" s="196">
         <f>MAX(0,MIN(1,IF((A6+G6) &lt;= 0.95, ROUND(A6+G6,2), FLOOR((0.95+(A6+G6-0.95)/5),0.01))))</f>
-        <v>0.95000000000000007</v>
+        <v>0.92</v>
       </c>
       <c r="H3" s="197"/>
       <c r="J3" s="189"/>
@@ -41121,17 +41339,17 @@
       <c r="B6" s="10"/>
       <c r="C6" s="193">
         <f>D15+D24+D33+D42+D51+D60</f>
-        <v>0.24500000000000002</v>
+        <v>0.11</v>
       </c>
       <c r="D6" s="194"/>
       <c r="E6" s="193">
         <f>F15+F24+F33+F42+F51+F60</f>
-        <v>0.24500000000000002</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="F6" s="194"/>
       <c r="G6" s="193">
         <f>H15+H24+H33+H42+H51+H60</f>
-        <v>0.24500000000000002</v>
+        <v>0.21250000000000002</v>
       </c>
       <c r="H6" s="194"/>
       <c r="J6" s="142"/>
@@ -41199,28 +41417,28 @@
       </c>
       <c r="B9" s="55">
         <f>TCRs!$D$2</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="79">
         <v>-0.1</v>
       </c>
       <c r="D9" s="94">
         <f t="shared" ref="D9:D14" si="0">B9*C9</f>
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E9" s="81">
         <v>-0.05</v>
       </c>
       <c r="F9" s="94">
         <f t="shared" ref="F9:F14" si="1">B9*E9</f>
-        <v>0</v>
+        <v>-0.05</v>
       </c>
       <c r="G9" s="81">
         <v>-0.02</v>
       </c>
       <c r="H9" s="94">
         <f>B9*G9</f>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="J9" s="142"/>
       <c r="K9" s="103"/>
@@ -41235,28 +41453,28 @@
       </c>
       <c r="B10" s="10">
         <f>TCRs!$D$3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="80">
         <v>-0.02</v>
       </c>
       <c r="D10" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.02</v>
       </c>
       <c r="E10" s="82">
         <v>-0.01</v>
       </c>
       <c r="F10" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="G10" s="98">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="H10" s="95">
         <f t="shared" ref="H10:H14" si="2">B10*G10</f>
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="J10" s="142"/>
       <c r="K10" s="103"/>
@@ -41271,28 +41489,28 @@
       </c>
       <c r="B11" s="10">
         <f>TCRs!$D$4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="80">
         <v>-0.01</v>
       </c>
       <c r="D11" s="95">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.01</v>
       </c>
       <c r="E11" s="98">
         <v>-5.0000000000000001E-3</v>
       </c>
       <c r="F11" s="95">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="G11" s="78">
         <v>-2.5000000000000001E-3</v>
       </c>
       <c r="H11" s="95">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-2.5000000000000001E-3</v>
       </c>
       <c r="J11" s="142"/>
       <c r="K11" s="103"/>
@@ -41307,28 +41525,28 @@
       </c>
       <c r="B12" s="10">
         <f>TCRs!$D$7</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="99">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D12" s="95">
         <f t="shared" si="0"/>
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="E12" s="99">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12" s="95">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G12" s="99">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="H12" s="95">
         <f t="shared" si="2"/>
-        <v>0.04</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="J12" s="143"/>
       <c r="K12" s="103"/>
@@ -41406,21 +41624,21 @@
       </c>
       <c r="D15" s="97">
         <f>SUM(D9:D14)</f>
-        <v>0.04</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
       <c r="E15" s="77" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="97">
         <f>SUM(F9:F14)</f>
-        <v>0.04</v>
+        <v>-0.03</v>
       </c>
       <c r="G15" s="77" t="s">
         <v>15</v>
       </c>
       <c r="H15" s="97">
         <f>SUM(H9:H14)</f>
-        <v>0.04</v>
+        <v>7.5000000000000032E-3</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -42728,7 +42946,7 @@
     <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
